--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1350916.423790613</v>
+        <v>-1353570.653342165</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9140323.813181385</v>
+        <v>9140323.813181389</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>25.06055141287605</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.4520338474978</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="G2" t="n">
-        <v>28.4520338474978</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>25.06055141287646</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="G3" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>25.06055141287646</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>25.06055141287605</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>21.55244283155791</v>
+        <v>21.55244283155745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="F5" t="n">
-        <v>28.4520338474978</v>
+        <v>16.26985917608234</v>
       </c>
       <c r="G5" t="n">
-        <v>28.4520338474978</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3.120562843718733</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,22 +981,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="G6" t="n">
-        <v>24.3139600866182</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>25.06055141287646</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>28.4520338474978</v>
+        <v>25.01354411806633</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>25.01354411806634</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>38.88501798484931</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1178,13 +1178,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>38.88501798484931</v>
       </c>
       <c r="S8" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="H9" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>42.20118209180435</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>295.520797132458</v>
       </c>
       <c r="I11" t="n">
-        <v>45.01398041683322</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>111.2193237244455</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>204.3082350820676</v>
+        <v>165.8056469882069</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>162.4673823823113</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>90.0575645052071</v>
       </c>
       <c r="I12" t="n">
-        <v>10.33380093015188</v>
+        <v>10.33380093015191</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.86732126200785</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>190.4659546787922</v>
@@ -1582,7 +1582,7 @@
         <v>219.7198187562186</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2140195181241</v>
+        <v>63.09866989266824</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9793076271889</v>
+        <v>371.7244201202503</v>
       </c>
       <c r="H14" t="n">
         <v>295.1974757758384</v>
       </c>
       <c r="I14" t="n">
-        <v>43.79685881536105</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>110.4999110146719</v>
       </c>
       <c r="T14" t="n">
-        <v>204.170035229647</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.9997785168008</v>
       </c>
       <c r="V14" t="n">
-        <v>40.53047691818807</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>20.75612399177916</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0516375501157</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.9846607932621</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.12917763635946</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>190.2191594315753</v>
       </c>
       <c r="T16" t="n">
-        <v>219.6593107926338</v>
+        <v>62.6411586053826</v>
       </c>
       <c r="U16" t="n">
         <v>286.2132470760358</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>338.9369828481196</v>
+        <v>338.9369828481195</v>
       </c>
       <c r="C17" t="n">
         <v>321.4760329556465</v>
@@ -1850,7 +1850,7 @@
         <v>310.8861828053219</v>
       </c>
       <c r="E17" t="n">
-        <v>338.1335112569008</v>
+        <v>338.1335112569007</v>
       </c>
       <c r="F17" t="n">
         <v>363.0791869263504</v>
@@ -1895,22 +1895,22 @@
         <v>66.70305219931086</v>
       </c>
       <c r="T17" t="n">
-        <v>160.373176414286</v>
+        <v>160.3731764142859</v>
       </c>
       <c r="U17" t="n">
-        <v>207.2029197014398</v>
+        <v>207.2029197014397</v>
       </c>
       <c r="V17" t="n">
-        <v>283.9553996547739</v>
+        <v>283.9553996547738</v>
       </c>
       <c r="W17" t="n">
-        <v>305.444109902052</v>
+        <v>305.4441099020519</v>
       </c>
       <c r="X17" t="n">
         <v>325.934241863108</v>
       </c>
       <c r="Y17" t="n">
-        <v>342.4410798406926</v>
+        <v>342.4410798406925</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.41026401931514</v>
+        <v>136.0351213665762</v>
       </c>
       <c r="C19" t="n">
         <v>123.4499622832668</v>
@@ -2011,16 +2011,16 @@
         <v>102.6371038312081</v>
       </c>
       <c r="F19" t="n">
-        <v>101.6241892075702</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>122.2547787347547</v>
+        <v>122.2547787347546</v>
       </c>
       <c r="H19" t="n">
-        <v>101.1878019779011</v>
+        <v>101.187801977901</v>
       </c>
       <c r="I19" t="n">
-        <v>53.33231882099843</v>
+        <v>51.33165068130902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.29667270667382</v>
+        <v>46.29667270667376</v>
       </c>
       <c r="S19" t="n">
         <v>146.4223006162143</v>
@@ -2059,16 +2059,16 @@
         <v>242.4163882606748</v>
       </c>
       <c r="V19" t="n">
-        <v>208.340784508467</v>
+        <v>208.3407845084669</v>
       </c>
       <c r="W19" t="n">
-        <v>242.72613952123</v>
+        <v>242.7261395212299</v>
       </c>
       <c r="X19" t="n">
         <v>181.9127965736761</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.7877945367338</v>
+        <v>174.7877945367337</v>
       </c>
     </row>
     <row r="20">
@@ -2245,10 +2245,10 @@
         <v>104.8186142028513</v>
       </c>
       <c r="E22" t="n">
-        <v>102.6371038312081</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>101.6241892075702</v>
+        <v>100.6364356915185</v>
       </c>
       <c r="G22" t="n">
         <v>122.2547787347546</v>
@@ -2287,7 +2287,7 @@
         <v>46.29667270667376</v>
       </c>
       <c r="S22" t="n">
-        <v>42.79744326895491</v>
+        <v>146.4223006162143</v>
       </c>
       <c r="T22" t="n">
         <v>175.8624519772728</v>
@@ -2369,10 +2369,10 @@
         <v>66.70305219931086</v>
       </c>
       <c r="T23" t="n">
-        <v>160.373176414286</v>
+        <v>160.3731764142859</v>
       </c>
       <c r="U23" t="n">
-        <v>207.2029197014398</v>
+        <v>207.2029197014397</v>
       </c>
       <c r="V23" t="n">
         <v>283.9553996547738</v>
@@ -2476,7 +2476,7 @@
         <v>136.0351213665762</v>
       </c>
       <c r="C25" t="n">
-        <v>123.4499622832668</v>
+        <v>19.8251049360079</v>
       </c>
       <c r="D25" t="n">
         <v>104.8186142028513</v>
@@ -2491,10 +2491,10 @@
         <v>122.2547787347546</v>
       </c>
       <c r="H25" t="n">
-        <v>101.1878019779011</v>
+        <v>101.187801977901</v>
       </c>
       <c r="I25" t="n">
-        <v>53.33231882099842</v>
+        <v>53.3323188209984</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.29667270667379</v>
+        <v>46.29667270667376</v>
       </c>
       <c r="S25" t="n">
         <v>146.4223006162143</v>
@@ -2533,13 +2533,13 @@
         <v>242.4163882606748</v>
       </c>
       <c r="V25" t="n">
-        <v>208.340784508467</v>
+        <v>208.3407845084669</v>
       </c>
       <c r="W25" t="n">
-        <v>242.72613952123</v>
+        <v>242.7261395212299</v>
       </c>
       <c r="X25" t="n">
-        <v>78.28793922641661</v>
+        <v>181.9127965736761</v>
       </c>
       <c r="Y25" t="n">
         <v>174.7877945367337</v>
@@ -2606,10 +2606,10 @@
         <v>66.70305219931086</v>
       </c>
       <c r="T26" t="n">
-        <v>160.373176414286</v>
+        <v>160.3731764142859</v>
       </c>
       <c r="U26" t="n">
-        <v>207.2029197014398</v>
+        <v>207.2029197014397</v>
       </c>
       <c r="V26" t="n">
         <v>283.9553996547738</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>136.0351213665762</v>
+        <v>32.41026401931691</v>
       </c>
       <c r="C28" t="n">
         <v>123.4499622832668</v>
@@ -2722,16 +2722,16 @@
         <v>102.6371038312081</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>101.6241892075702</v>
       </c>
       <c r="G28" t="n">
         <v>122.2547787347546</v>
       </c>
       <c r="H28" t="n">
-        <v>101.1878019779011</v>
+        <v>101.187801977901</v>
       </c>
       <c r="I28" t="n">
-        <v>51.33165068130858</v>
+        <v>53.3323188209984</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.29667270667379</v>
+        <v>46.29667270667376</v>
       </c>
       <c r="S28" t="n">
         <v>146.4223006162143</v>
@@ -2770,10 +2770,10 @@
         <v>242.4163882606748</v>
       </c>
       <c r="V28" t="n">
-        <v>208.340784508467</v>
+        <v>208.3407845084669</v>
       </c>
       <c r="W28" t="n">
-        <v>242.72613952123</v>
+        <v>242.7261395212299</v>
       </c>
       <c r="X28" t="n">
         <v>181.9127965736761</v>
@@ -2843,10 +2843,10 @@
         <v>66.70305219931086</v>
       </c>
       <c r="T29" t="n">
-        <v>160.373176414286</v>
+        <v>160.3731764142859</v>
       </c>
       <c r="U29" t="n">
-        <v>207.2029197014398</v>
+        <v>207.2029197014397</v>
       </c>
       <c r="V29" t="n">
         <v>283.9553996547738</v>
@@ -2950,13 +2950,13 @@
         <v>136.0351213665762</v>
       </c>
       <c r="C31" t="n">
-        <v>123.4499622832668</v>
+        <v>122.4622087672149</v>
       </c>
       <c r="D31" t="n">
         <v>104.8186142028513</v>
       </c>
       <c r="E31" t="n">
-        <v>102.6371038312081</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>101.6241892075702</v>
@@ -2965,10 +2965,10 @@
         <v>122.2547787347546</v>
       </c>
       <c r="H31" t="n">
-        <v>101.1878019779011</v>
+        <v>101.187801977901</v>
       </c>
       <c r="I31" t="n">
-        <v>53.33231882099842</v>
+        <v>53.3323188209984</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.29667270667379</v>
+        <v>46.29667270667376</v>
       </c>
       <c r="S31" t="n">
         <v>146.4223006162143</v>
       </c>
       <c r="T31" t="n">
-        <v>72.23759463001363</v>
+        <v>175.8624519772728</v>
       </c>
       <c r="U31" t="n">
         <v>242.4163882606748</v>
       </c>
       <c r="V31" t="n">
-        <v>208.340784508467</v>
+        <v>208.3407845084669</v>
       </c>
       <c r="W31" t="n">
-        <v>242.72613952123</v>
+        <v>242.7261395212299</v>
       </c>
       <c r="X31" t="n">
         <v>181.9127965736761</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.35651779831511</v>
+        <v>62.35651779831512</v>
       </c>
       <c r="T32" t="n">
         <v>156.0266420132902</v>
@@ -3205,7 +3205,7 @@
         <v>96.8412675769053</v>
       </c>
       <c r="I34" t="n">
-        <v>48.98578442000266</v>
+        <v>48.98578442000267</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95013830567804</v>
+        <v>41.95013830567805</v>
       </c>
       <c r="S34" t="n">
         <v>142.0757662152186</v>
@@ -3266,7 +3266,7 @@
         <v>334.5904484471238</v>
       </c>
       <c r="C35" t="n">
-        <v>317.1294985546508</v>
+        <v>317.1294985546507</v>
       </c>
       <c r="D35" t="n">
         <v>306.5396484043262</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.35651779831512</v>
+        <v>62.35651779831508</v>
       </c>
       <c r="T35" t="n">
         <v>156.0266420132902</v>
@@ -3323,7 +3323,7 @@
         <v>202.856385300444</v>
       </c>
       <c r="V35" t="n">
-        <v>279.6088652537781</v>
+        <v>279.608865253778</v>
       </c>
       <c r="W35" t="n">
         <v>301.0975755010562</v>
@@ -3332,7 +3332,7 @@
         <v>321.5877074621122</v>
       </c>
       <c r="Y35" t="n">
-        <v>338.0945454396968</v>
+        <v>338.0945454396967</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>119.103427882271</v>
       </c>
       <c r="D37" t="n">
-        <v>100.4720798018556</v>
+        <v>100.4720798018555</v>
       </c>
       <c r="E37" t="n">
-        <v>98.29056943021237</v>
+        <v>98.29056943021234</v>
       </c>
       <c r="F37" t="n">
-        <v>97.27765480657445</v>
+        <v>97.27765480657442</v>
       </c>
       <c r="G37" t="n">
         <v>117.9082443337589</v>
       </c>
       <c r="H37" t="n">
-        <v>96.8412675769053</v>
+        <v>96.84126757690527</v>
       </c>
       <c r="I37" t="n">
-        <v>48.98578442000267</v>
+        <v>48.98578442000263</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95013830567805</v>
+        <v>41.95013830567801</v>
       </c>
       <c r="S37" t="n">
-        <v>142.0757662152186</v>
+        <v>142.0757662152185</v>
       </c>
       <c r="T37" t="n">
         <v>171.515917576277</v>
@@ -3487,7 +3487,7 @@
         <v>238.3796051202342</v>
       </c>
       <c r="X37" t="n">
-        <v>177.5662621726804</v>
+        <v>177.5662621726803</v>
       </c>
       <c r="Y37" t="n">
         <v>170.441260135738</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.3565177983151</v>
+        <v>62.35651779831511</v>
       </c>
       <c r="T38" t="n">
         <v>156.0266420132902</v>
@@ -3600,7 +3600,7 @@
         <v>89.89442619359272</v>
       </c>
       <c r="I39" t="n">
-        <v>9.752222480482104</v>
+        <v>9.752222480482118</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>96.8412675769053</v>
       </c>
       <c r="I40" t="n">
-        <v>48.98578442000265</v>
+        <v>48.98578442000266</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95013830567802</v>
+        <v>41.95013830567804</v>
       </c>
       <c r="S40" t="n">
         <v>142.0757662152186</v>
@@ -3755,7 +3755,7 @@
         <v>362.8359144108321</v>
       </c>
       <c r="H41" t="n">
-        <v>247.0540825594816</v>
+        <v>247.0540825594817</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.35651779831511</v>
+        <v>62.35651779831512</v>
       </c>
       <c r="T41" t="n">
         <v>156.0266420132902</v>
@@ -3797,7 +3797,7 @@
         <v>202.856385300444</v>
       </c>
       <c r="V41" t="n">
-        <v>279.6088652537781</v>
+        <v>279.6088652537782</v>
       </c>
       <c r="W41" t="n">
         <v>301.0975755010562</v>
@@ -3837,7 +3837,7 @@
         <v>89.89442619359272</v>
       </c>
       <c r="I42" t="n">
-        <v>9.752222480482118</v>
+        <v>9.752222480482104</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>131.6885869655805</v>
       </c>
       <c r="C43" t="n">
-        <v>119.103427882271</v>
+        <v>119.1034278822711</v>
       </c>
       <c r="D43" t="n">
         <v>100.4720798018556</v>
       </c>
       <c r="E43" t="n">
-        <v>98.29056943021237</v>
+        <v>98.2905694302124</v>
       </c>
       <c r="F43" t="n">
-        <v>97.27765480657445</v>
+        <v>97.27765480657447</v>
       </c>
       <c r="G43" t="n">
         <v>117.9082443337589</v>
       </c>
       <c r="H43" t="n">
-        <v>96.84126757690531</v>
+        <v>96.84126757690532</v>
       </c>
       <c r="I43" t="n">
-        <v>48.98578442000267</v>
+        <v>48.98578442000268</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95013830567804</v>
+        <v>41.95013830567805</v>
       </c>
       <c r="S43" t="n">
         <v>142.0757662152186</v>
       </c>
       <c r="T43" t="n">
-        <v>171.515917576277</v>
+        <v>171.5159175762771</v>
       </c>
       <c r="U43" t="n">
-        <v>238.069853859679</v>
+        <v>238.0698538596791</v>
       </c>
       <c r="V43" t="n">
         <v>203.9942501074712</v>
@@ -3992,7 +3992,7 @@
         <v>362.8359144108321</v>
       </c>
       <c r="H44" t="n">
-        <v>247.0540825594816</v>
+        <v>247.0540825594817</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.35651779831511</v>
+        <v>62.35651779831512</v>
       </c>
       <c r="T44" t="n">
         <v>156.0266420132902</v>
@@ -4034,7 +4034,7 @@
         <v>202.856385300444</v>
       </c>
       <c r="V44" t="n">
-        <v>279.6088652537781</v>
+        <v>279.6088652537782</v>
       </c>
       <c r="W44" t="n">
         <v>301.0975755010562</v>
@@ -4074,7 +4074,7 @@
         <v>89.89442619359272</v>
       </c>
       <c r="I45" t="n">
-        <v>9.752222480482118</v>
+        <v>9.752222480482104</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>131.6885869655805</v>
       </c>
       <c r="C46" t="n">
-        <v>119.103427882271</v>
+        <v>119.1034278822711</v>
       </c>
       <c r="D46" t="n">
         <v>100.4720798018556</v>
       </c>
       <c r="E46" t="n">
-        <v>98.29056943021237</v>
+        <v>98.2905694302124</v>
       </c>
       <c r="F46" t="n">
-        <v>97.27765480657445</v>
+        <v>97.27765480657447</v>
       </c>
       <c r="G46" t="n">
         <v>117.9082443337589</v>
       </c>
       <c r="H46" t="n">
-        <v>96.84126757690531</v>
+        <v>96.84126757690532</v>
       </c>
       <c r="I46" t="n">
-        <v>48.98578442000267</v>
+        <v>48.98578442000268</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95013830567804</v>
+        <v>41.95013830567805</v>
       </c>
       <c r="S46" t="n">
         <v>142.0757662152186</v>
       </c>
       <c r="T46" t="n">
-        <v>171.515917576277</v>
+        <v>171.5159175762771</v>
       </c>
       <c r="U46" t="n">
         <v>238.069853859679</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113.8081353899912</v>
+        <v>59.7550189653721</v>
       </c>
       <c r="C2" t="n">
-        <v>113.8081353899912</v>
+        <v>59.7550189653721</v>
       </c>
       <c r="D2" t="n">
-        <v>88.49444709415681</v>
+        <v>59.7550189653721</v>
       </c>
       <c r="E2" t="n">
-        <v>59.75501896537115</v>
+        <v>59.7550189653721</v>
       </c>
       <c r="F2" t="n">
-        <v>31.01559083658548</v>
+        <v>31.01559083658598</v>
       </c>
       <c r="G2" t="n">
-        <v>2.276162707799824</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="H2" t="n">
-        <v>2.276162707799824</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="I2" t="n">
-        <v>2.276162707799824</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="J2" t="n">
-        <v>2.276162707799824</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="K2" t="n">
-        <v>30.44367621682265</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="L2" t="n">
-        <v>58.61118972584548</v>
+        <v>29.3055948629232</v>
       </c>
       <c r="M2" t="n">
-        <v>86.7787032348683</v>
+        <v>57.47310837194647</v>
       </c>
       <c r="N2" t="n">
-        <v>86.7787032348683</v>
+        <v>85.64062188096975</v>
       </c>
       <c r="O2" t="n">
-        <v>113.8081353899912</v>
+        <v>85.64062188096975</v>
       </c>
       <c r="P2" t="n">
-        <v>113.8081353899912</v>
+        <v>113.808135389993</v>
       </c>
       <c r="Q2" t="n">
-        <v>113.8081353899912</v>
+        <v>113.808135389993</v>
       </c>
       <c r="R2" t="n">
-        <v>113.8081353899912</v>
+        <v>113.808135389993</v>
       </c>
       <c r="S2" t="n">
-        <v>113.8081353899912</v>
+        <v>113.808135389993</v>
       </c>
       <c r="T2" t="n">
-        <v>113.8081353899912</v>
+        <v>113.808135389993</v>
       </c>
       <c r="U2" t="n">
-        <v>113.8081353899912</v>
+        <v>113.808135389993</v>
       </c>
       <c r="V2" t="n">
-        <v>113.8081353899912</v>
+        <v>113.808135389993</v>
       </c>
       <c r="W2" t="n">
-        <v>113.8081353899912</v>
+        <v>85.06870726120691</v>
       </c>
       <c r="X2" t="n">
-        <v>113.8081353899912</v>
+        <v>85.06870726120691</v>
       </c>
       <c r="Y2" t="n">
-        <v>113.8081353899912</v>
+        <v>59.7550189653721</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.01559083658548</v>
+        <v>56.32927913242079</v>
       </c>
       <c r="C3" t="n">
-        <v>31.01559083658548</v>
+        <v>56.32927913242079</v>
       </c>
       <c r="D3" t="n">
-        <v>31.01559083658548</v>
+        <v>56.32927913242079</v>
       </c>
       <c r="E3" t="n">
-        <v>31.01559083658548</v>
+        <v>56.32927913242079</v>
       </c>
       <c r="F3" t="n">
-        <v>31.01559083658548</v>
+        <v>27.58985100363467</v>
       </c>
       <c r="G3" t="n">
-        <v>2.276162707799824</v>
+        <v>27.58985100363467</v>
       </c>
       <c r="H3" t="n">
-        <v>2.276162707799824</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="I3" t="n">
-        <v>2.276162707799824</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="J3" t="n">
-        <v>2.276162707799824</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="K3" t="n">
-        <v>30.44367621682265</v>
+        <v>30.44367621682314</v>
       </c>
       <c r="L3" t="n">
-        <v>57.47310837194556</v>
+        <v>30.44367621682314</v>
       </c>
       <c r="M3" t="n">
-        <v>57.47310837194556</v>
+        <v>58.61118972584641</v>
       </c>
       <c r="N3" t="n">
-        <v>57.47310837194556</v>
+        <v>86.77870323486968</v>
       </c>
       <c r="O3" t="n">
-        <v>57.47310837194556</v>
+        <v>113.808135389993</v>
       </c>
       <c r="P3" t="n">
-        <v>85.64062188096838</v>
+        <v>113.808135389993</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.8081353899912</v>
+        <v>113.808135389993</v>
       </c>
       <c r="R3" t="n">
-        <v>85.06870726120555</v>
+        <v>113.808135389993</v>
       </c>
       <c r="S3" t="n">
-        <v>85.06870726120555</v>
+        <v>85.06870726120691</v>
       </c>
       <c r="T3" t="n">
-        <v>85.06870726120555</v>
+        <v>85.06870726120691</v>
       </c>
       <c r="U3" t="n">
-        <v>59.75501896537115</v>
+        <v>85.06870726120691</v>
       </c>
       <c r="V3" t="n">
-        <v>59.75501896537115</v>
+        <v>85.06870726120691</v>
       </c>
       <c r="W3" t="n">
-        <v>31.01559083658548</v>
+        <v>85.06870726120691</v>
       </c>
       <c r="X3" t="n">
-        <v>31.01559083658548</v>
+        <v>85.06870726120691</v>
       </c>
       <c r="Y3" t="n">
-        <v>31.01559083658548</v>
+        <v>56.32927913242079</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.78573511088641</v>
+        <v>52.78573511088643</v>
       </c>
       <c r="C4" t="n">
-        <v>52.78573511088641</v>
+        <v>24.04630698210032</v>
       </c>
       <c r="D4" t="n">
-        <v>52.78573511088641</v>
+        <v>24.04630698210032</v>
       </c>
       <c r="E4" t="n">
-        <v>31.01559083658548</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="F4" t="n">
-        <v>31.01559083658548</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="G4" t="n">
-        <v>31.01559083658548</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="H4" t="n">
-        <v>31.01559083658548</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="I4" t="n">
-        <v>2.276162707799824</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="J4" t="n">
-        <v>2.276162707799824</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="K4" t="n">
-        <v>2.276162707799824</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="L4" t="n">
-        <v>29.5902877155128</v>
+        <v>29.59028771551284</v>
       </c>
       <c r="M4" t="n">
-        <v>57.75780122453563</v>
+        <v>57.75780122453611</v>
       </c>
       <c r="N4" t="n">
-        <v>85.92531473355845</v>
+        <v>85.92531473355939</v>
       </c>
       <c r="O4" t="n">
-        <v>110.2645913684577</v>
+        <v>110.2645913684587</v>
       </c>
       <c r="P4" t="n">
-        <v>110.2645913684577</v>
+        <v>110.2645913684587</v>
       </c>
       <c r="Q4" t="n">
-        <v>81.52516323967207</v>
+        <v>110.2645913684587</v>
       </c>
       <c r="R4" t="n">
-        <v>81.52516323967207</v>
+        <v>110.2645913684587</v>
       </c>
       <c r="S4" t="n">
-        <v>81.52516323967207</v>
+        <v>110.2645913684587</v>
       </c>
       <c r="T4" t="n">
-        <v>81.52516323967207</v>
+        <v>110.2645913684587</v>
       </c>
       <c r="U4" t="n">
-        <v>81.52516323967207</v>
+        <v>110.2645913684587</v>
       </c>
       <c r="V4" t="n">
-        <v>81.52516323967207</v>
+        <v>110.2645913684587</v>
       </c>
       <c r="W4" t="n">
-        <v>81.52516323967207</v>
+        <v>81.52516323967255</v>
       </c>
       <c r="X4" t="n">
-        <v>81.52516323967207</v>
+        <v>81.52516323967255</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.78573511088641</v>
+        <v>81.52516323967255</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71.82500821245449</v>
+        <v>74.97709189297983</v>
       </c>
       <c r="C5" t="n">
-        <v>71.82500821245449</v>
+        <v>74.97709189297983</v>
       </c>
       <c r="D5" t="n">
-        <v>71.82500821245449</v>
+        <v>74.97709189297983</v>
       </c>
       <c r="E5" t="n">
-        <v>71.82500821245449</v>
+        <v>46.23766376419371</v>
       </c>
       <c r="F5" t="n">
-        <v>43.08558008366884</v>
+        <v>29.80346257623175</v>
       </c>
       <c r="G5" t="n">
-        <v>14.34615195488318</v>
+        <v>14.34615195488321</v>
       </c>
       <c r="H5" t="n">
-        <v>14.34615195488318</v>
+        <v>14.34615195488321</v>
       </c>
       <c r="I5" t="n">
-        <v>14.34615195488318</v>
+        <v>14.34615195488321</v>
       </c>
       <c r="J5" t="n">
-        <v>2.276162707799824</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="K5" t="n">
-        <v>29.30559486292273</v>
+        <v>29.3055948629232</v>
       </c>
       <c r="L5" t="n">
-        <v>57.47310837194556</v>
+        <v>57.47310837194647</v>
       </c>
       <c r="M5" t="n">
-        <v>57.47310837194556</v>
+        <v>85.64062188096975</v>
       </c>
       <c r="N5" t="n">
-        <v>57.47310837194556</v>
+        <v>113.808135389993</v>
       </c>
       <c r="O5" t="n">
-        <v>85.64062188096838</v>
+        <v>113.808135389993</v>
       </c>
       <c r="P5" t="n">
-        <v>113.8081353899912</v>
+        <v>113.808135389993</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.7165200217641</v>
+        <v>103.7165200217659</v>
       </c>
       <c r="R5" t="n">
-        <v>74.97709189297846</v>
+        <v>103.7165200217659</v>
       </c>
       <c r="S5" t="n">
-        <v>71.82500821245449</v>
+        <v>103.7165200217659</v>
       </c>
       <c r="T5" t="n">
-        <v>71.82500821245449</v>
+        <v>103.7165200217659</v>
       </c>
       <c r="U5" t="n">
-        <v>71.82500821245449</v>
+        <v>103.7165200217659</v>
       </c>
       <c r="V5" t="n">
-        <v>71.82500821245449</v>
+        <v>103.7165200217659</v>
       </c>
       <c r="W5" t="n">
-        <v>71.82500821245449</v>
+        <v>103.7165200217659</v>
       </c>
       <c r="X5" t="n">
-        <v>71.82500821245449</v>
+        <v>103.7165200217659</v>
       </c>
       <c r="Y5" t="n">
-        <v>71.82500821245449</v>
+        <v>103.7165200217659</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.58985100363422</v>
+        <v>85.06870726120691</v>
       </c>
       <c r="C6" t="n">
-        <v>27.58985100363422</v>
+        <v>85.06870726120691</v>
       </c>
       <c r="D6" t="n">
-        <v>27.58985100363422</v>
+        <v>85.06870726120691</v>
       </c>
       <c r="E6" t="n">
-        <v>27.58985100363422</v>
+        <v>56.32927913242079</v>
       </c>
       <c r="F6" t="n">
-        <v>27.58985100363422</v>
+        <v>27.58985100363467</v>
       </c>
       <c r="G6" t="n">
-        <v>3.030295360585538</v>
+        <v>27.58985100363467</v>
       </c>
       <c r="H6" t="n">
-        <v>3.030295360585538</v>
+        <v>27.58985100363467</v>
       </c>
       <c r="I6" t="n">
-        <v>3.030295360585538</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="J6" t="n">
-        <v>2.276162707799824</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="K6" t="n">
-        <v>2.276162707799824</v>
+        <v>29.3055948629232</v>
       </c>
       <c r="L6" t="n">
-        <v>2.276162707799824</v>
+        <v>57.47310837194647</v>
       </c>
       <c r="M6" t="n">
-        <v>29.30559486292273</v>
+        <v>57.47310837194647</v>
       </c>
       <c r="N6" t="n">
-        <v>57.47310837194556</v>
+        <v>57.47310837194647</v>
       </c>
       <c r="O6" t="n">
-        <v>85.64062188096838</v>
+        <v>57.47310837194647</v>
       </c>
       <c r="P6" t="n">
-        <v>85.64062188096838</v>
+        <v>85.64062188096975</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.8081353899912</v>
+        <v>113.808135389993</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06870726120555</v>
+        <v>113.808135389993</v>
       </c>
       <c r="S6" t="n">
-        <v>85.06870726120555</v>
+        <v>113.808135389993</v>
       </c>
       <c r="T6" t="n">
-        <v>85.06870726120555</v>
+        <v>113.808135389993</v>
       </c>
       <c r="U6" t="n">
-        <v>85.06870726120555</v>
+        <v>113.808135389993</v>
       </c>
       <c r="V6" t="n">
-        <v>56.32927913241988</v>
+        <v>113.808135389993</v>
       </c>
       <c r="W6" t="n">
-        <v>56.32927913241988</v>
+        <v>113.808135389993</v>
       </c>
       <c r="X6" t="n">
-        <v>56.32927913241988</v>
+        <v>113.808135389993</v>
       </c>
       <c r="Y6" t="n">
-        <v>27.58985100363422</v>
+        <v>113.808135389993</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.24945515313161</v>
+        <v>107.5156613329975</v>
       </c>
       <c r="C7" t="n">
-        <v>82.24945515313161</v>
+        <v>107.5156613329975</v>
       </c>
       <c r="D7" t="n">
-        <v>82.24945515313161</v>
+        <v>107.5156613329975</v>
       </c>
       <c r="E7" t="n">
-        <v>82.24945515313161</v>
+        <v>78.77623320421142</v>
       </c>
       <c r="F7" t="n">
-        <v>82.24945515313161</v>
+        <v>50.03680507542531</v>
       </c>
       <c r="G7" t="n">
-        <v>82.24945515313161</v>
+        <v>50.03680507542531</v>
       </c>
       <c r="H7" t="n">
-        <v>53.51002702434594</v>
+        <v>24.77059889556032</v>
       </c>
       <c r="I7" t="n">
-        <v>53.51002702434594</v>
+        <v>24.77059889556032</v>
       </c>
       <c r="J7" t="n">
-        <v>24.77059889556028</v>
+        <v>24.77059889556032</v>
       </c>
       <c r="K7" t="n">
-        <v>2.276162707799824</v>
+        <v>2.276162707799861</v>
       </c>
       <c r="L7" t="n">
-        <v>29.5902877155128</v>
+        <v>29.59028771551284</v>
       </c>
       <c r="M7" t="n">
-        <v>57.75780122453563</v>
+        <v>57.75780122453611</v>
       </c>
       <c r="N7" t="n">
-        <v>85.92531473355845</v>
+        <v>85.92531473355939</v>
       </c>
       <c r="O7" t="n">
-        <v>110.2645913684577</v>
+        <v>110.2645913684587</v>
       </c>
       <c r="P7" t="n">
-        <v>107.5156613329966</v>
+        <v>107.5156613329975</v>
       </c>
       <c r="Q7" t="n">
-        <v>107.5156613329966</v>
+        <v>107.5156613329975</v>
       </c>
       <c r="R7" t="n">
-        <v>107.5156613329966</v>
+        <v>107.5156613329975</v>
       </c>
       <c r="S7" t="n">
-        <v>107.5156613329966</v>
+        <v>107.5156613329975</v>
       </c>
       <c r="T7" t="n">
-        <v>107.5156613329966</v>
+        <v>107.5156613329975</v>
       </c>
       <c r="U7" t="n">
-        <v>107.5156613329966</v>
+        <v>107.5156613329975</v>
       </c>
       <c r="V7" t="n">
-        <v>107.5156613329966</v>
+        <v>107.5156613329975</v>
       </c>
       <c r="W7" t="n">
-        <v>82.24945515313161</v>
+        <v>107.5156613329975</v>
       </c>
       <c r="X7" t="n">
-        <v>82.24945515313161</v>
+        <v>107.5156613329975</v>
       </c>
       <c r="Y7" t="n">
-        <v>82.24945515313161</v>
+        <v>107.5156613329975</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>121.8591222504766</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="C8" t="n">
-        <v>121.8591222504766</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="D8" t="n">
-        <v>121.8591222504766</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="E8" t="n">
-        <v>121.8591222504766</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="F8" t="n">
-        <v>114.9136215012731</v>
+        <v>31.05787365877018</v>
       </c>
       <c r="G8" t="n">
-        <v>99.45631087992457</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H8" t="n">
-        <v>60.17851493563234</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I8" t="n">
         <v>15.60056303742164</v>
@@ -4805,16 +4805,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L8" t="n">
         <v>45.45613755060546</v>
       </c>
       <c r="M8" t="n">
+        <v>45.45613755060546</v>
+      </c>
+      <c r="N8" t="n">
         <v>89.14698820604177</v>
-      </c>
-      <c r="N8" t="n">
-        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
         <v>132.8378388614781</v>
@@ -4826,28 +4826,28 @@
         <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>166.4370741486873</v>
+        <v>127.1592782043951</v>
       </c>
       <c r="S8" t="n">
-        <v>121.8591222504766</v>
+        <v>82.58132630618435</v>
       </c>
       <c r="T8" t="n">
-        <v>121.8591222504766</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="U8" t="n">
-        <v>121.8591222504766</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="V8" t="n">
-        <v>121.8591222504766</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="W8" t="n">
-        <v>121.8591222504766</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="X8" t="n">
-        <v>121.8591222504766</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="Y8" t="n">
-        <v>121.8591222504766</v>
+        <v>38.00337440797365</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D9" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E9" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F9" t="n">
-        <v>131.9507376187037</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G9" t="n">
-        <v>87.37278572049297</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H9" t="n">
-        <v>48.8626583413347</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I9" t="n">
         <v>4.284706443124001</v>
@@ -4884,19 +4884,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M9" t="n">
+        <v>47.22142444577459</v>
+      </c>
+      <c r="N9" t="n">
         <v>89.14698820604177</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>132.8378388614781</v>
-      </c>
-      <c r="O9" t="n">
-        <v>176.5286895169144</v>
       </c>
       <c r="P9" t="n">
         <v>176.5286895169144</v>
@@ -4917,16 +4917,16 @@
         <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="J10" t="n">
         <v>3.530573790338288</v>
@@ -4984,28 +4984,28 @@
         <v>90.73598234693722</v>
       </c>
       <c r="R10" t="n">
-        <v>90.73598234693722</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S10" t="n">
-        <v>90.73598234693722</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="T10" t="n">
-        <v>90.73598234693722</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.15803044872652</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2347.477407273348</v>
+        <v>1933.046223245226</v>
       </c>
       <c r="C11" t="n">
-        <v>1978.514890332936</v>
+        <v>1933.046223245226</v>
       </c>
       <c r="D11" t="n">
-        <v>1620.249191726186</v>
+        <v>1574.780524638475</v>
       </c>
       <c r="E11" t="n">
-        <v>1234.460939127941</v>
+        <v>1188.992272040231</v>
       </c>
       <c r="F11" t="n">
-        <v>823.4750343383338</v>
+        <v>778.0063672506234</v>
       </c>
       <c r="G11" t="n">
-        <v>408.3125311821714</v>
+        <v>362.843864094461</v>
       </c>
       <c r="H11" t="n">
-        <v>109.8066754928198</v>
+        <v>64.33800840510942</v>
       </c>
       <c r="I11" t="n">
-        <v>64.33800840510949</v>
+        <v>64.33800840510942</v>
       </c>
       <c r="J11" t="n">
-        <v>245.7261018615754</v>
+        <v>245.7261018615749</v>
       </c>
       <c r="K11" t="n">
-        <v>568.3183521862322</v>
+        <v>568.3183521862314</v>
       </c>
       <c r="L11" t="n">
-        <v>1005.424326129965</v>
+        <v>1005.424326129964</v>
       </c>
       <c r="M11" t="n">
-        <v>1523.458380891036</v>
+        <v>1523.458380891033</v>
       </c>
       <c r="N11" t="n">
-        <v>2054.488576624903</v>
+        <v>2054.4885766249</v>
       </c>
       <c r="O11" t="n">
-        <v>2542.590070965446</v>
+        <v>2542.590070965442</v>
       </c>
       <c r="P11" t="n">
-        <v>2924.672402898965</v>
+        <v>2924.672402898962</v>
       </c>
       <c r="Q11" t="n">
-        <v>3163.427575375223</v>
+        <v>3163.427575375219</v>
       </c>
       <c r="R11" t="n">
-        <v>3216.900420255474</v>
+        <v>3216.900420255471</v>
       </c>
       <c r="S11" t="n">
-        <v>3104.557669018661</v>
+        <v>3216.900420255471</v>
       </c>
       <c r="T11" t="n">
-        <v>2898.185714390309</v>
+        <v>3049.419968752231</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.185714390309</v>
+        <v>3049.419968752231</v>
       </c>
       <c r="V11" t="n">
-        <v>2734.07724733747</v>
+        <v>3049.419968752231</v>
       </c>
       <c r="W11" t="n">
-        <v>2734.07724733747</v>
+        <v>2696.651313482117</v>
       </c>
       <c r="X11" t="n">
-        <v>2734.07724733747</v>
+        <v>2323.185555221037</v>
       </c>
       <c r="Y11" t="n">
-        <v>2734.07724733747</v>
+        <v>1933.046223245226</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3141627285191</v>
+        <v>931.3141627285189</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8611334473921</v>
+        <v>756.8611334473919</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9267237861409</v>
+        <v>607.9267237861407</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6892687806853</v>
+        <v>448.6892687806852</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1547108075703</v>
+        <v>302.1547108075702</v>
       </c>
       <c r="G12" t="n">
         <v>165.7434280367852</v>
       </c>
       <c r="H12" t="n">
-        <v>74.77619116283867</v>
+        <v>74.77619116283861</v>
       </c>
       <c r="I12" t="n">
-        <v>64.33800840510949</v>
+        <v>64.33800840510942</v>
       </c>
       <c r="J12" t="n">
-        <v>153.5536672779466</v>
+        <v>153.5536672779464</v>
       </c>
       <c r="K12" t="n">
-        <v>384.1922630776236</v>
+        <v>449.9544738385008</v>
       </c>
       <c r="L12" t="n">
-        <v>740.6368588559956</v>
+        <v>806.3990696168727</v>
       </c>
       <c r="M12" t="n">
-        <v>1175.947757896186</v>
+        <v>1241.709968657063</v>
       </c>
       <c r="N12" t="n">
-        <v>1637.188686041711</v>
+        <v>1702.950896802588</v>
       </c>
       <c r="O12" t="n">
-        <v>2036.914229366607</v>
+        <v>2102.676440127484</v>
       </c>
       <c r="P12" t="n">
-        <v>2338.396152067959</v>
+        <v>2404.158362828835</v>
       </c>
       <c r="Q12" t="n">
         <v>2555.771847710945</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>381.1872849154095</v>
+        <v>233.2741913330163</v>
       </c>
       <c r="C13" t="n">
-        <v>212.2511019875026</v>
+        <v>64.33800840510942</v>
       </c>
       <c r="D13" t="n">
-        <v>212.2511019875026</v>
+        <v>64.33800840510942</v>
       </c>
       <c r="E13" t="n">
-        <v>64.33800840510949</v>
+        <v>64.33800840510942</v>
       </c>
       <c r="F13" t="n">
-        <v>64.33800840510949</v>
+        <v>64.33800840510942</v>
       </c>
       <c r="G13" t="n">
-        <v>64.33800840510949</v>
+        <v>64.33800840510942</v>
       </c>
       <c r="H13" t="n">
-        <v>64.33800840510949</v>
+        <v>64.33800840510942</v>
       </c>
       <c r="I13" t="n">
-        <v>64.33800840510949</v>
+        <v>64.33800840510942</v>
       </c>
       <c r="J13" t="n">
-        <v>106.6615697310226</v>
+        <v>106.6615697310225</v>
       </c>
       <c r="K13" t="n">
-        <v>306.0490189873869</v>
+        <v>306.0490189873867</v>
       </c>
       <c r="L13" t="n">
-        <v>616.7227419423507</v>
+        <v>616.7227419423504</v>
       </c>
       <c r="M13" t="n">
-        <v>954.673746222652</v>
+        <v>954.6737462226515</v>
       </c>
       <c r="N13" t="n">
         <v>1290.023647400656</v>
       </c>
       <c r="O13" t="n">
-        <v>1583.757263578411</v>
+        <v>1583.75726357841</v>
       </c>
       <c r="P13" t="n">
-        <v>1811.576434039834</v>
+        <v>1811.576434039833</v>
       </c>
       <c r="Q13" t="n">
-        <v>1885.871538718035</v>
+        <v>1885.871538718034</v>
       </c>
       <c r="R13" t="n">
-        <v>1856.71262835237</v>
+        <v>1885.871538718034</v>
       </c>
       <c r="S13" t="n">
-        <v>1664.322775141469</v>
+        <v>1693.481685507133</v>
       </c>
       <c r="T13" t="n">
-        <v>1442.383564276602</v>
+        <v>1471.542474642265</v>
       </c>
       <c r="U13" t="n">
-        <v>1153.278494056274</v>
+        <v>1407.806444447651</v>
       </c>
       <c r="V13" t="n">
-        <v>898.5940058503875</v>
+        <v>1153.121956241764</v>
       </c>
       <c r="W13" t="n">
-        <v>609.1768358134268</v>
+        <v>863.7047862048036</v>
       </c>
       <c r="X13" t="n">
-        <v>381.1872849154095</v>
+        <v>635.7152353067861</v>
       </c>
       <c r="Y13" t="n">
-        <v>381.1872849154095</v>
+        <v>414.922656163256</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2363.661358934629</v>
+        <v>2279.770706083822</v>
       </c>
       <c r="C14" t="n">
-        <v>1994.698841994218</v>
+        <v>1910.80818914341</v>
       </c>
       <c r="D14" t="n">
-        <v>1636.433143387467</v>
+        <v>1552.54249053666</v>
       </c>
       <c r="E14" t="n">
-        <v>1250.644890789223</v>
+        <v>1166.754237938416</v>
       </c>
       <c r="F14" t="n">
-        <v>839.6589859996154</v>
+        <v>755.7683331488081</v>
       </c>
       <c r="G14" t="n">
-        <v>424.5283722347781</v>
+        <v>380.2891209061305</v>
       </c>
       <c r="H14" t="n">
-        <v>126.3491037743352</v>
+        <v>82.10985244568765</v>
       </c>
       <c r="I14" t="n">
-        <v>82.10985244568764</v>
+        <v>82.10985244568765</v>
       </c>
       <c r="J14" t="n">
-        <v>266.1506573418191</v>
+        <v>433.5563063621721</v>
       </c>
       <c r="K14" t="n">
-        <v>592.7186344700328</v>
+        <v>1081.028241935839</v>
       </c>
       <c r="L14" t="n">
-        <v>1034.75684907139</v>
+        <v>1523.066456537197</v>
       </c>
       <c r="M14" t="n">
-        <v>1574.761246283676</v>
+        <v>2046.588579370907</v>
       </c>
       <c r="N14" t="n">
-        <v>2544.341767937061</v>
+        <v>2583.195645856428</v>
       </c>
       <c r="O14" t="n">
-        <v>3037.709343186955</v>
+        <v>3102.768598861208</v>
       </c>
       <c r="P14" t="n">
-        <v>3742.866874431285</v>
+        <v>3807.926130105539</v>
       </c>
       <c r="Q14" t="n">
-        <v>3984.997212874408</v>
+        <v>4050.056468548662</v>
       </c>
       <c r="R14" t="n">
-        <v>4105.492622284381</v>
+        <v>4105.492622284382</v>
       </c>
       <c r="S14" t="n">
-        <v>3993.87655055239</v>
+        <v>3993.876550552391</v>
       </c>
       <c r="T14" t="n">
-        <v>3787.644191734565</v>
+        <v>3993.876550552391</v>
       </c>
       <c r="U14" t="n">
-        <v>3534.109061919614</v>
+        <v>3740.341420737441</v>
       </c>
       <c r="V14" t="n">
-        <v>3493.169186244677</v>
+        <v>3409.27853339387</v>
       </c>
       <c r="W14" t="n">
-        <v>3140.400530974563</v>
+        <v>3056.509878123756</v>
       </c>
       <c r="X14" t="n">
-        <v>3140.400530974563</v>
+        <v>3056.509878123756</v>
       </c>
       <c r="Y14" t="n">
-        <v>2750.261198998751</v>
+        <v>2666.370546147944</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>182.7630329245511</v>
       </c>
       <c r="H15" t="n">
-        <v>91.9605822239524</v>
+        <v>91.96058222395241</v>
       </c>
       <c r="I15" t="n">
-        <v>82.10985244568764</v>
+        <v>82.10985244568765</v>
       </c>
       <c r="J15" t="n">
-        <v>172.9054480790971</v>
+        <v>211.7070272853747</v>
       </c>
       <c r="K15" t="n">
-        <v>406.2444074512169</v>
+        <v>445.0459866574946</v>
       </c>
       <c r="L15" t="n">
-        <v>766.3199752983014</v>
+        <v>805.1215545045791</v>
       </c>
       <c r="M15" t="n">
-        <v>1205.868047480791</v>
+        <v>1244.669626687069</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.458294133589</v>
+        <v>1710.259873339867</v>
       </c>
       <c r="O15" t="n">
-        <v>2075.1626141843</v>
+        <v>2113.964193390578</v>
       </c>
       <c r="P15" t="n">
-        <v>2379.83785598327</v>
+        <v>2418.639435189548</v>
       </c>
       <c r="Q15" t="n">
         <v>2572.387569320982</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>515.3639938310578</v>
+        <v>380.1395854404163</v>
       </c>
       <c r="C16" t="n">
-        <v>515.3639938310578</v>
+        <v>380.1395854404165</v>
       </c>
       <c r="D16" t="n">
-        <v>515.3639938310578</v>
+        <v>230.0229460280808</v>
       </c>
       <c r="E16" t="n">
-        <v>515.3639938310578</v>
+        <v>82.10985244568765</v>
       </c>
       <c r="F16" t="n">
-        <v>494.3982120211799</v>
+        <v>82.10985244568765</v>
       </c>
       <c r="G16" t="n">
-        <v>326.6692852028812</v>
+        <v>82.10985244568765</v>
       </c>
       <c r="H16" t="n">
-        <v>180.2201328864548</v>
+        <v>82.10985244568765</v>
       </c>
       <c r="I16" t="n">
-        <v>82.10985244568764</v>
+        <v>82.10985244568765</v>
       </c>
       <c r="J16" t="n">
         <v>125.4246153215379</v>
       </c>
       <c r="K16" t="n">
-        <v>326.4409132095333</v>
+        <v>326.4409132095336</v>
       </c>
       <c r="L16" t="n">
-        <v>639.1990016200292</v>
+        <v>639.1990016200293</v>
       </c>
       <c r="M16" t="n">
-        <v>979.347677023587</v>
+        <v>979.3476770235872</v>
       </c>
       <c r="N16" t="n">
         <v>1316.842993617573</v>
@@ -5464,22 +5464,22 @@
         <v>1725.4015612818</v>
       </c>
       <c r="T16" t="n">
-        <v>1503.523469572069</v>
+        <v>1662.127663700606</v>
       </c>
       <c r="U16" t="n">
-        <v>1214.419179596276</v>
+        <v>1373.023373724811</v>
       </c>
       <c r="V16" t="n">
-        <v>1214.419179596276</v>
+        <v>1118.338885518924</v>
       </c>
       <c r="W16" t="n">
-        <v>925.002009559315</v>
+        <v>828.9217154819638</v>
       </c>
       <c r="X16" t="n">
-        <v>697.0124586612976</v>
+        <v>600.9321645839465</v>
       </c>
       <c r="Y16" t="n">
-        <v>697.0124586612976</v>
+        <v>380.1395854404163</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2053.986599634096</v>
+        <v>2053.986599634098</v>
       </c>
       <c r="C17" t="n">
-        <v>1729.263334022332</v>
+        <v>1729.263334022334</v>
       </c>
       <c r="D17" t="n">
-        <v>1415.236886744229</v>
+        <v>1415.236886744231</v>
       </c>
       <c r="E17" t="n">
-        <v>1073.687885474632</v>
+        <v>1073.687885474634</v>
       </c>
       <c r="F17" t="n">
-        <v>706.9412320136721</v>
+        <v>706.9412320136739</v>
       </c>
       <c r="G17" t="n">
-        <v>336.049869577483</v>
+        <v>336.0498695774844</v>
       </c>
       <c r="H17" t="n">
-        <v>82.10985244568764</v>
+        <v>82.10985244568766</v>
       </c>
       <c r="I17" t="n">
-        <v>82.10985244568764</v>
+        <v>82.10985244568766</v>
       </c>
       <c r="J17" t="n">
         <v>266.1506573418191</v>
       </c>
       <c r="K17" t="n">
-        <v>592.7186344700328</v>
+        <v>730.2414402406089</v>
       </c>
       <c r="L17" t="n">
-        <v>1034.75684907139</v>
+        <v>1172.279654841966</v>
       </c>
       <c r="M17" t="n">
-        <v>1958.401223047696</v>
+        <v>1695.801777675676</v>
       </c>
       <c r="N17" t="n">
-        <v>2927.981744701081</v>
+        <v>2232.408844161198</v>
       </c>
       <c r="O17" t="n">
-        <v>3421.349319950975</v>
+        <v>3102.768598861209</v>
       </c>
       <c r="P17" t="n">
-        <v>3807.926130105538</v>
+        <v>3807.92613010554</v>
       </c>
       <c r="Q17" t="n">
-        <v>4050.056468548661</v>
+        <v>4050.056468548662</v>
       </c>
       <c r="R17" t="n">
-        <v>4105.492622284381</v>
+        <v>4105.492622284383</v>
       </c>
       <c r="S17" t="n">
-        <v>4038.115801881037</v>
+        <v>4038.115801881039</v>
       </c>
       <c r="T17" t="n">
-        <v>3876.122694391859</v>
+        <v>3876.122694391861</v>
       </c>
       <c r="U17" t="n">
-        <v>3666.826815905556</v>
+        <v>3666.826815905558</v>
       </c>
       <c r="V17" t="n">
-        <v>3380.003179890633</v>
+        <v>3380.003179890635</v>
       </c>
       <c r="W17" t="n">
-        <v>3071.473775949167</v>
+        <v>3071.473775949169</v>
       </c>
       <c r="X17" t="n">
-        <v>2742.247269016734</v>
+        <v>2742.247269016736</v>
       </c>
       <c r="Y17" t="n">
-        <v>2396.34718836957</v>
+        <v>2396.347188369572</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>624.9292663453311</v>
       </c>
       <c r="E18" t="n">
-        <v>465.6918113398756</v>
+        <v>465.6918113398757</v>
       </c>
       <c r="F18" t="n">
         <v>319.1572533667606</v>
@@ -5586,10 +5586,10 @@
         <v>182.7630329245511</v>
       </c>
       <c r="H18" t="n">
-        <v>91.9605822239524</v>
+        <v>91.96058222395243</v>
       </c>
       <c r="I18" t="n">
-        <v>82.10985244568764</v>
+        <v>82.10985244568766</v>
       </c>
       <c r="J18" t="n">
         <v>172.9054480790971</v>
@@ -5607,10 +5607,10 @@
         <v>1671.458294133589</v>
       </c>
       <c r="O18" t="n">
-        <v>2113.964193390578</v>
+        <v>2075.1626141843</v>
       </c>
       <c r="P18" t="n">
-        <v>2418.639435189548</v>
+        <v>2379.83785598327</v>
       </c>
       <c r="Q18" t="n">
         <v>2572.387569320982</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>798.5793161411933</v>
+        <v>693.9077430631532</v>
       </c>
       <c r="C19" t="n">
-        <v>673.8823845419339</v>
+        <v>569.2108114638938</v>
       </c>
       <c r="D19" t="n">
-        <v>568.0049964582457</v>
+        <v>463.3334233802056</v>
       </c>
       <c r="E19" t="n">
-        <v>464.3311542045001</v>
+        <v>359.65958112646</v>
       </c>
       <c r="F19" t="n">
-        <v>361.6804580352373</v>
+        <v>359.65958112646</v>
       </c>
       <c r="G19" t="n">
-        <v>238.1907825455861</v>
+        <v>236.1699056368088</v>
       </c>
       <c r="H19" t="n">
-        <v>135.9808815578073</v>
+        <v>133.9600046490301</v>
       </c>
       <c r="I19" t="n">
-        <v>82.10985244568764</v>
+        <v>82.10985244568766</v>
       </c>
       <c r="J19" t="n">
-        <v>168.783505548745</v>
+        <v>168.7835055487453</v>
       </c>
       <c r="K19" t="n">
-        <v>413.158693663948</v>
+        <v>413.1586936639484</v>
       </c>
       <c r="L19" t="n">
-        <v>769.2756723016513</v>
+        <v>769.2756723016516</v>
       </c>
       <c r="M19" t="n">
         <v>1152.783237932417</v>
@@ -5686,37 +5686,37 @@
         <v>1533.63744475361</v>
       </c>
       <c r="O19" t="n">
-        <v>1872.711589540779</v>
+        <v>1872.71158954078</v>
       </c>
       <c r="P19" t="n">
-        <v>2145.585284203996</v>
+        <v>2145.585284203997</v>
       </c>
       <c r="Q19" t="n">
-        <v>2264.413248181858</v>
+        <v>2264.413248181859</v>
       </c>
       <c r="R19" t="n">
-        <v>2217.648932316531</v>
+        <v>2217.648932316532</v>
       </c>
       <c r="S19" t="n">
-        <v>2069.747618562779</v>
+        <v>2069.74761856278</v>
       </c>
       <c r="T19" t="n">
-        <v>1892.108778181696</v>
+        <v>1892.108778181697</v>
       </c>
       <c r="U19" t="n">
-        <v>1647.243739534549</v>
+        <v>1647.24373953455</v>
       </c>
       <c r="V19" t="n">
-        <v>1436.79850265731</v>
+        <v>1436.798502657311</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.620583948997</v>
+        <v>1191.620583948998</v>
       </c>
       <c r="X19" t="n">
-        <v>1007.870284379627</v>
+        <v>1007.870284379628</v>
       </c>
       <c r="Y19" t="n">
-        <v>831.3169565647439</v>
+        <v>831.3169565647454</v>
       </c>
     </row>
     <row r="20">
@@ -5738,46 +5738,46 @@
         <v>1073.687885474634</v>
       </c>
       <c r="F20" t="n">
-        <v>706.9412320136737</v>
+        <v>706.9412320136739</v>
       </c>
       <c r="G20" t="n">
-        <v>336.0498695774829</v>
+        <v>336.049869577483</v>
       </c>
       <c r="H20" t="n">
-        <v>82.10985244568764</v>
+        <v>82.10985244568765</v>
       </c>
       <c r="I20" t="n">
-        <v>82.10985244568764</v>
+        <v>82.10985244568765</v>
       </c>
       <c r="J20" t="n">
         <v>266.1506573418191</v>
       </c>
       <c r="K20" t="n">
-        <v>831.9825232631665</v>
+        <v>730.241440240608</v>
       </c>
       <c r="L20" t="n">
-        <v>1274.020737864524</v>
+        <v>1172.279654841966</v>
       </c>
       <c r="M20" t="n">
-        <v>1797.542860698234</v>
+        <v>1695.801777675676</v>
       </c>
       <c r="N20" t="n">
-        <v>2334.149927183755</v>
+        <v>2232.408844161197</v>
       </c>
       <c r="O20" t="n">
-        <v>2827.517502433649</v>
+        <v>3102.768598861208</v>
       </c>
       <c r="P20" t="n">
-        <v>3532.67503367798</v>
+        <v>3807.926130105539</v>
       </c>
       <c r="Q20" t="n">
-        <v>3984.997212874408</v>
+        <v>4050.056468548662</v>
       </c>
       <c r="R20" t="n">
-        <v>4105.492622284381</v>
+        <v>4105.492622284382</v>
       </c>
       <c r="S20" t="n">
-        <v>4038.115801881037</v>
+        <v>4038.115801881038</v>
       </c>
       <c r="T20" t="n">
         <v>3876.12269439186</v>
@@ -5823,10 +5823,10 @@
         <v>182.7630329245511</v>
       </c>
       <c r="H21" t="n">
-        <v>91.9605822239524</v>
+        <v>91.96058222395241</v>
       </c>
       <c r="I21" t="n">
-        <v>82.10985244568764</v>
+        <v>82.10985244568765</v>
       </c>
       <c r="J21" t="n">
         <v>172.9054480790971</v>
@@ -5847,7 +5847,7 @@
         <v>2075.1626141843</v>
       </c>
       <c r="P21" t="n">
-        <v>2418.639435189548</v>
+        <v>2379.83785598327</v>
       </c>
       <c r="Q21" t="n">
         <v>2572.387569320982</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>798.5793161411931</v>
+        <v>693.907743063153</v>
       </c>
       <c r="C22" t="n">
-        <v>673.8823845419337</v>
+        <v>569.2108114638936</v>
       </c>
       <c r="D22" t="n">
-        <v>568.0049964582455</v>
+        <v>463.3334233802054</v>
       </c>
       <c r="E22" t="n">
-        <v>464.3311542045</v>
+        <v>463.3334233802054</v>
       </c>
       <c r="F22" t="n">
         <v>361.6804580352372</v>
@@ -5902,19 +5902,19 @@
         <v>238.190782545586</v>
       </c>
       <c r="H22" t="n">
-        <v>135.9808815578072</v>
+        <v>135.9808815578073</v>
       </c>
       <c r="I22" t="n">
-        <v>82.10985244568764</v>
+        <v>82.10985244568765</v>
       </c>
       <c r="J22" t="n">
-        <v>168.7835055487454</v>
+        <v>168.7835055487453</v>
       </c>
       <c r="K22" t="n">
         <v>413.1586936639483</v>
       </c>
       <c r="L22" t="n">
-        <v>769.2756723016516</v>
+        <v>769.2756723016515</v>
       </c>
       <c r="M22" t="n">
         <v>1152.783237932417</v>
@@ -5923,7 +5923,7 @@
         <v>1533.63744475361</v>
       </c>
       <c r="O22" t="n">
-        <v>1872.711589540779</v>
+        <v>1872.71158954078</v>
       </c>
       <c r="P22" t="n">
         <v>2145.585284203997</v>
@@ -5932,28 +5932,28 @@
         <v>2264.413248181859</v>
       </c>
       <c r="R22" t="n">
-        <v>2217.648932316531</v>
+        <v>2217.648932316532</v>
       </c>
       <c r="S22" t="n">
-        <v>2174.41919164082</v>
+        <v>2069.747618562781</v>
       </c>
       <c r="T22" t="n">
-        <v>1996.780351259737</v>
+        <v>1892.108778181697</v>
       </c>
       <c r="U22" t="n">
-        <v>1751.91531261259</v>
+        <v>1647.24373953455</v>
       </c>
       <c r="V22" t="n">
-        <v>1541.470075735351</v>
+        <v>1436.798502657311</v>
       </c>
       <c r="W22" t="n">
-        <v>1296.292157027038</v>
+        <v>1191.620583948998</v>
       </c>
       <c r="X22" t="n">
-        <v>1112.541857457668</v>
+        <v>1007.870284379628</v>
       </c>
       <c r="Y22" t="n">
-        <v>935.9885296427852</v>
+        <v>831.3169565647452</v>
       </c>
     </row>
     <row r="23">
@@ -5975,64 +5975,64 @@
         <v>1073.687885474633</v>
       </c>
       <c r="F23" t="n">
-        <v>706.9412320136732</v>
+        <v>706.9412320136729</v>
       </c>
       <c r="G23" t="n">
         <v>336.0498695774836</v>
       </c>
       <c r="H23" t="n">
-        <v>82.10985244568764</v>
+        <v>82.10985244568765</v>
       </c>
       <c r="I23" t="n">
-        <v>82.10985244568764</v>
+        <v>82.10985244568765</v>
       </c>
       <c r="J23" t="n">
         <v>266.1506573418191</v>
       </c>
       <c r="K23" t="n">
-        <v>913.6225929154861</v>
+        <v>592.7186344700328</v>
       </c>
       <c r="L23" t="n">
-        <v>1355.660807516844</v>
+        <v>1034.75684907139</v>
       </c>
       <c r="M23" t="n">
-        <v>1879.182930350554</v>
+        <v>2003.297370063005</v>
       </c>
       <c r="N23" t="n">
-        <v>2415.789996836075</v>
+        <v>2927.981744701082</v>
       </c>
       <c r="O23" t="n">
-        <v>3286.149751536087</v>
+        <v>3421.349319950976</v>
       </c>
       <c r="P23" t="n">
-        <v>3807.926130105538</v>
+        <v>3807.926130105539</v>
       </c>
       <c r="Q23" t="n">
-        <v>4050.056468548661</v>
+        <v>4050.056468548662</v>
       </c>
       <c r="R23" t="n">
-        <v>4105.492622284381</v>
+        <v>4105.492622284382</v>
       </c>
       <c r="S23" t="n">
-        <v>4038.115801881037</v>
+        <v>4038.115801881038</v>
       </c>
       <c r="T23" t="n">
         <v>3876.12269439186</v>
       </c>
       <c r="U23" t="n">
-        <v>3666.826815905558</v>
+        <v>3666.826815905557</v>
       </c>
       <c r="V23" t="n">
-        <v>3380.003179890635</v>
+        <v>3380.003179890634</v>
       </c>
       <c r="W23" t="n">
-        <v>3071.473775949168</v>
+        <v>3071.473775949167</v>
       </c>
       <c r="X23" t="n">
-        <v>2742.247269016736</v>
+        <v>2742.247269016735</v>
       </c>
       <c r="Y23" t="n">
-        <v>2396.347188369572</v>
+        <v>2396.347188369571</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>182.7630329245511</v>
       </c>
       <c r="H24" t="n">
-        <v>91.9605822239524</v>
+        <v>91.96058222395241</v>
       </c>
       <c r="I24" t="n">
-        <v>82.10985244568764</v>
+        <v>82.10985244568765</v>
       </c>
       <c r="J24" t="n">
         <v>172.9054480790971</v>
@@ -6075,13 +6075,13 @@
         <v>766.3199752983014</v>
       </c>
       <c r="M24" t="n">
-        <v>1244.669626687069</v>
+        <v>1205.868047480791</v>
       </c>
       <c r="N24" t="n">
-        <v>1710.259873339867</v>
+        <v>1671.458294133589</v>
       </c>
       <c r="O24" t="n">
-        <v>2113.964193390578</v>
+        <v>2075.1626141843</v>
       </c>
       <c r="P24" t="n">
         <v>2418.639435189548</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>798.5793161411932</v>
+        <v>693.9077430631539</v>
       </c>
       <c r="C25" t="n">
         <v>673.8823845419338</v>
@@ -6130,7 +6130,7 @@
         <v>568.0049964582456</v>
       </c>
       <c r="E25" t="n">
-        <v>464.3311542045001</v>
+        <v>464.3311542045</v>
       </c>
       <c r="F25" t="n">
         <v>361.6804580352372</v>
@@ -6142,25 +6142,25 @@
         <v>135.9808815578073</v>
       </c>
       <c r="I25" t="n">
-        <v>82.10985244568764</v>
+        <v>82.10985244568765</v>
       </c>
       <c r="J25" t="n">
-        <v>168.7835055487453</v>
+        <v>168.7835055487454</v>
       </c>
       <c r="K25" t="n">
-        <v>413.1586936639484</v>
+        <v>413.1586936639483</v>
       </c>
       <c r="L25" t="n">
-        <v>769.2756723016516</v>
+        <v>769.2756723016515</v>
       </c>
       <c r="M25" t="n">
         <v>1152.783237932417</v>
       </c>
       <c r="N25" t="n">
-        <v>1533.637444753611</v>
+        <v>1533.63744475361</v>
       </c>
       <c r="O25" t="n">
-        <v>1872.71158954078</v>
+        <v>1872.711589540779</v>
       </c>
       <c r="P25" t="n">
         <v>2145.585284203997</v>
@@ -6169,28 +6169,28 @@
         <v>2264.413248181859</v>
       </c>
       <c r="R25" t="n">
-        <v>2217.648932316532</v>
+        <v>2217.648932316531</v>
       </c>
       <c r="S25" t="n">
         <v>2069.74761856278</v>
       </c>
       <c r="T25" t="n">
-        <v>1892.108778181697</v>
+        <v>1892.108778181696</v>
       </c>
       <c r="U25" t="n">
-        <v>1647.24373953455</v>
+        <v>1647.243739534551</v>
       </c>
       <c r="V25" t="n">
-        <v>1436.798502657311</v>
+        <v>1436.798502657312</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.620583948998</v>
+        <v>1191.620583948999</v>
       </c>
       <c r="X25" t="n">
-        <v>1112.541857457668</v>
+        <v>1007.870284379629</v>
       </c>
       <c r="Y25" t="n">
-        <v>935.9885296427854</v>
+        <v>831.3169565647461</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2053.986599634098</v>
+        <v>2053.986599634096</v>
       </c>
       <c r="C26" t="n">
-        <v>1729.263334022333</v>
+        <v>1729.263334022332</v>
       </c>
       <c r="D26" t="n">
-        <v>1415.23688674423</v>
+        <v>1415.236886744229</v>
       </c>
       <c r="E26" t="n">
         <v>1073.687885474633</v>
       </c>
       <c r="F26" t="n">
-        <v>706.9412320136732</v>
+        <v>706.9412320136726</v>
       </c>
       <c r="G26" t="n">
-        <v>336.0498695774836</v>
+        <v>336.0498695774829</v>
       </c>
       <c r="H26" t="n">
-        <v>82.10985244568765</v>
+        <v>82.10985244568764</v>
       </c>
       <c r="I26" t="n">
-        <v>82.10985244568765</v>
+        <v>82.10985244568764</v>
       </c>
       <c r="J26" t="n">
-        <v>433.5563063621721</v>
+        <v>266.1506573418191</v>
       </c>
       <c r="K26" t="n">
-        <v>1081.028241935839</v>
+        <v>897.0417789374192</v>
       </c>
       <c r="L26" t="n">
-        <v>1523.066456537197</v>
+        <v>1339.079993538777</v>
       </c>
       <c r="M26" t="n">
-        <v>2046.588579370907</v>
+        <v>1862.602116372487</v>
       </c>
       <c r="N26" t="n">
-        <v>2583.195645856428</v>
+        <v>2399.209182858008</v>
       </c>
       <c r="O26" t="n">
-        <v>3076.563221106322</v>
+        <v>2892.576758107902</v>
       </c>
       <c r="P26" t="n">
-        <v>3532.675033677981</v>
+        <v>3597.734289352232</v>
       </c>
       <c r="Q26" t="n">
-        <v>3984.997212874409</v>
+        <v>4050.056468548661</v>
       </c>
       <c r="R26" t="n">
-        <v>4105.492622284382</v>
+        <v>4105.492622284381</v>
       </c>
       <c r="S26" t="n">
-        <v>4038.115801881038</v>
+        <v>4038.115801881037</v>
       </c>
       <c r="T26" t="n">
-        <v>3876.12269439186</v>
+        <v>3876.122694391859</v>
       </c>
       <c r="U26" t="n">
-        <v>3666.826815905558</v>
+        <v>3666.826815905557</v>
       </c>
       <c r="V26" t="n">
-        <v>3380.003179890635</v>
+        <v>3380.003179890634</v>
       </c>
       <c r="W26" t="n">
-        <v>3071.473775949168</v>
+        <v>3071.473775949167</v>
       </c>
       <c r="X26" t="n">
-        <v>2742.247269016736</v>
+        <v>2742.247269016735</v>
       </c>
       <c r="Y26" t="n">
-        <v>2396.347188369572</v>
+        <v>2396.347188369571</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>182.7630329245511</v>
       </c>
       <c r="H27" t="n">
-        <v>91.96058222395241</v>
+        <v>91.9605822239524</v>
       </c>
       <c r="I27" t="n">
-        <v>82.10985244568765</v>
+        <v>82.10985244568764</v>
       </c>
       <c r="J27" t="n">
-        <v>211.7070272853747</v>
+        <v>172.9054480790971</v>
       </c>
       <c r="K27" t="n">
-        <v>445.0459866574946</v>
+        <v>406.2444074512169</v>
       </c>
       <c r="L27" t="n">
-        <v>805.1215545045791</v>
+        <v>766.3199752983014</v>
       </c>
       <c r="M27" t="n">
-        <v>1244.669626687069</v>
+        <v>1205.868047480791</v>
       </c>
       <c r="N27" t="n">
-        <v>1710.259873339867</v>
+        <v>1671.458294133589</v>
       </c>
       <c r="O27" t="n">
-        <v>2113.964193390578</v>
+        <v>2075.1626141843</v>
       </c>
       <c r="P27" t="n">
-        <v>2418.639435189548</v>
+        <v>2379.83785598327</v>
       </c>
       <c r="Q27" t="n">
         <v>2572.387569320982</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>693.907743063153</v>
+        <v>798.5793161411932</v>
       </c>
       <c r="C28" t="n">
-        <v>569.2108114638936</v>
+        <v>673.8823845419338</v>
       </c>
       <c r="D28" t="n">
-        <v>463.3334233802054</v>
+        <v>568.0049964582456</v>
       </c>
       <c r="E28" t="n">
-        <v>359.6595811264598</v>
+        <v>464.3311542045</v>
       </c>
       <c r="F28" t="n">
-        <v>359.6595811264598</v>
+        <v>361.6804580352372</v>
       </c>
       <c r="G28" t="n">
-        <v>236.1699056368086</v>
+        <v>238.190782545586</v>
       </c>
       <c r="H28" t="n">
-        <v>133.9600046490297</v>
+        <v>135.9808815578072</v>
       </c>
       <c r="I28" t="n">
-        <v>82.10985244568765</v>
+        <v>82.10985244568764</v>
       </c>
       <c r="J28" t="n">
         <v>168.7835055487454</v>
@@ -6388,16 +6388,16 @@
         <v>413.1586936639483</v>
       </c>
       <c r="L28" t="n">
-        <v>769.2756723016515</v>
+        <v>769.2756723016516</v>
       </c>
       <c r="M28" t="n">
         <v>1152.783237932417</v>
       </c>
       <c r="N28" t="n">
-        <v>1533.637444753611</v>
+        <v>1533.63744475361</v>
       </c>
       <c r="O28" t="n">
-        <v>1872.71158954078</v>
+        <v>1872.711589540779</v>
       </c>
       <c r="P28" t="n">
         <v>2145.585284203997</v>
@@ -6406,16 +6406,16 @@
         <v>2264.413248181859</v>
       </c>
       <c r="R28" t="n">
-        <v>2217.648932316532</v>
+        <v>2217.648932316531</v>
       </c>
       <c r="S28" t="n">
         <v>2069.74761856278</v>
       </c>
       <c r="T28" t="n">
-        <v>1892.108778181697</v>
+        <v>1892.108778181696</v>
       </c>
       <c r="U28" t="n">
-        <v>1647.24373953455</v>
+        <v>1647.243739534551</v>
       </c>
       <c r="V28" t="n">
         <v>1436.798502657311</v>
@@ -6427,7 +6427,7 @@
         <v>1007.870284379628</v>
       </c>
       <c r="Y28" t="n">
-        <v>831.3169565647452</v>
+        <v>831.3169565647456</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2053.986599634098</v>
+        <v>2053.986599634097</v>
       </c>
       <c r="C29" t="n">
         <v>1729.263334022333</v>
@@ -6455,40 +6455,40 @@
         <v>336.0498695774836</v>
       </c>
       <c r="H29" t="n">
-        <v>82.10985244568765</v>
+        <v>82.10985244568764</v>
       </c>
       <c r="I29" t="n">
-        <v>82.10985244568765</v>
+        <v>82.10985244568764</v>
       </c>
       <c r="J29" t="n">
-        <v>433.5563063621721</v>
+        <v>266.1506573418191</v>
       </c>
       <c r="K29" t="n">
-        <v>760.1242834903859</v>
+        <v>592.7186344700328</v>
       </c>
       <c r="L29" t="n">
-        <v>1202.162498091744</v>
+        <v>1034.75684907139</v>
       </c>
       <c r="M29" t="n">
-        <v>1725.684620925454</v>
+        <v>2003.297370063005</v>
       </c>
       <c r="N29" t="n">
-        <v>2262.291687410975</v>
+        <v>2927.981744701081</v>
       </c>
       <c r="O29" t="n">
-        <v>3132.651442110986</v>
+        <v>3421.349319950975</v>
       </c>
       <c r="P29" t="n">
-        <v>3597.734289352233</v>
+        <v>3807.926130105538</v>
       </c>
       <c r="Q29" t="n">
-        <v>4050.056468548662</v>
+        <v>4050.056468548661</v>
       </c>
       <c r="R29" t="n">
-        <v>4105.492622284382</v>
+        <v>4105.492622284381</v>
       </c>
       <c r="S29" t="n">
-        <v>4038.115801881038</v>
+        <v>4038.115801881037</v>
       </c>
       <c r="T29" t="n">
         <v>3876.12269439186</v>
@@ -6534,31 +6534,31 @@
         <v>182.7630329245511</v>
       </c>
       <c r="H30" t="n">
-        <v>91.96058222395241</v>
+        <v>91.9605822239524</v>
       </c>
       <c r="I30" t="n">
-        <v>82.10985244568765</v>
+        <v>82.10985244568764</v>
       </c>
       <c r="J30" t="n">
-        <v>172.9054480790971</v>
+        <v>211.7070272853747</v>
       </c>
       <c r="K30" t="n">
-        <v>406.2444074512169</v>
+        <v>445.0459866574946</v>
       </c>
       <c r="L30" t="n">
-        <v>766.3199752983014</v>
+        <v>805.1215545045791</v>
       </c>
       <c r="M30" t="n">
-        <v>1205.868047480791</v>
+        <v>1244.669626687069</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.458294133589</v>
+        <v>1710.259873339867</v>
       </c>
       <c r="O30" t="n">
-        <v>2075.1626141843</v>
+        <v>2113.964193390578</v>
       </c>
       <c r="P30" t="n">
-        <v>2379.83785598327</v>
+        <v>2418.639435189548</v>
       </c>
       <c r="Q30" t="n">
         <v>2572.387569320982</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>798.5793161411932</v>
+        <v>693.9077430631527</v>
       </c>
       <c r="C31" t="n">
-        <v>673.8823845419338</v>
+        <v>570.2085422881881</v>
       </c>
       <c r="D31" t="n">
-        <v>568.0049964582456</v>
+        <v>464.3311542045</v>
       </c>
       <c r="E31" t="n">
-        <v>464.3311542045001</v>
+        <v>464.3311542045</v>
       </c>
       <c r="F31" t="n">
         <v>361.6804580352372</v>
@@ -6613,10 +6613,10 @@
         <v>238.190782545586</v>
       </c>
       <c r="H31" t="n">
-        <v>135.9808815578073</v>
+        <v>135.9808815578072</v>
       </c>
       <c r="I31" t="n">
-        <v>82.10985244568765</v>
+        <v>82.10985244568764</v>
       </c>
       <c r="J31" t="n">
         <v>168.7835055487453</v>
@@ -6634,7 +6634,7 @@
         <v>1533.63744475361</v>
       </c>
       <c r="O31" t="n">
-        <v>1872.711589540779</v>
+        <v>1872.71158954078</v>
       </c>
       <c r="P31" t="n">
         <v>2145.585284203997</v>
@@ -6643,28 +6643,28 @@
         <v>2264.413248181859</v>
       </c>
       <c r="R31" t="n">
-        <v>2217.648932316531</v>
+        <v>2217.648932316532</v>
       </c>
       <c r="S31" t="n">
         <v>2069.74761856278</v>
       </c>
       <c r="T31" t="n">
-        <v>1996.780351259736</v>
+        <v>1892.108778181697</v>
       </c>
       <c r="U31" t="n">
-        <v>1751.91531261259</v>
+        <v>1647.24373953455</v>
       </c>
       <c r="V31" t="n">
-        <v>1541.470075735351</v>
+        <v>1436.798502657311</v>
       </c>
       <c r="W31" t="n">
-        <v>1296.292157027038</v>
+        <v>1191.620583948998</v>
       </c>
       <c r="X31" t="n">
-        <v>1112.541857457668</v>
+        <v>1007.870284379627</v>
       </c>
       <c r="Y31" t="n">
-        <v>935.9885296427854</v>
+        <v>831.3169565647448</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2026.389555818251</v>
+        <v>2026.389555818252</v>
       </c>
       <c r="C32" t="n">
-        <v>1706.056728995371</v>
+        <v>1706.056728995372</v>
       </c>
       <c r="D32" t="n">
         <v>1396.420720506153</v>
       </c>
       <c r="E32" t="n">
-        <v>1059.26215802544</v>
+        <v>1059.262158025441</v>
       </c>
       <c r="F32" t="n">
-        <v>696.9059433533648</v>
+        <v>696.9059433533658</v>
       </c>
       <c r="G32" t="n">
-        <v>330.4050197060599</v>
+        <v>330.40501970606</v>
       </c>
       <c r="H32" t="n">
-        <v>80.85544136314918</v>
+        <v>80.85544136314921</v>
       </c>
       <c r="I32" t="n">
-        <v>80.85544136314918</v>
+        <v>80.85544136314921</v>
       </c>
       <c r="J32" t="n">
         <v>432.3018952796336</v>
       </c>
       <c r="K32" t="n">
-        <v>758.8698724078474</v>
+        <v>1079.773830853301</v>
       </c>
       <c r="L32" t="n">
-        <v>1211.300183737602</v>
+        <v>1521.812045454658</v>
       </c>
       <c r="M32" t="n">
-        <v>1734.822306571312</v>
+        <v>2045.334168288368</v>
       </c>
       <c r="N32" t="n">
-        <v>2271.429373056833</v>
+        <v>2581.941234773889</v>
       </c>
       <c r="O32" t="n">
-        <v>2764.796948306727</v>
+        <v>3075.308810023783</v>
       </c>
       <c r="P32" t="n">
-        <v>3469.954479551057</v>
+        <v>3469.954479551058</v>
       </c>
       <c r="Q32" t="n">
-        <v>3922.276658747486</v>
+        <v>3922.276658747487</v>
       </c>
       <c r="R32" t="n">
-        <v>4042.772068157459</v>
+        <v>4042.77206815746</v>
       </c>
       <c r="S32" t="n">
-        <v>3979.785686542999</v>
+        <v>3979.785686543</v>
       </c>
       <c r="T32" t="n">
-        <v>3822.183017842706</v>
+        <v>3822.183017842707</v>
       </c>
       <c r="U32" t="n">
-        <v>3617.277578145288</v>
+        <v>3617.277578145289</v>
       </c>
       <c r="V32" t="n">
-        <v>3334.844380919249</v>
+        <v>3334.844380919251</v>
       </c>
       <c r="W32" t="n">
-        <v>3030.705415766668</v>
+        <v>3030.705415766669</v>
       </c>
       <c r="X32" t="n">
-        <v>2705.86934762312</v>
+        <v>2705.869347623121</v>
       </c>
       <c r="Y32" t="n">
-        <v>2364.35970576484</v>
+        <v>2364.359705764841</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.0622942051708</v>
+        <v>947.062294205171</v>
       </c>
       <c r="C33" t="n">
-        <v>772.6092649240438</v>
+        <v>772.6092649240441</v>
       </c>
       <c r="D33" t="n">
-        <v>623.6748552627926</v>
+        <v>623.6748552627928</v>
       </c>
       <c r="E33" t="n">
-        <v>464.4374002573371</v>
+        <v>464.4374002573372</v>
       </c>
       <c r="F33" t="n">
-        <v>317.9028422842221</v>
+        <v>317.9028422842222</v>
       </c>
       <c r="G33" t="n">
-        <v>181.5086218420126</v>
+        <v>181.5086218420127</v>
       </c>
       <c r="H33" t="n">
-        <v>90.70617114141395</v>
+        <v>90.70617114141398</v>
       </c>
       <c r="I33" t="n">
-        <v>80.85544136314918</v>
+        <v>80.85544136314921</v>
       </c>
       <c r="J33" t="n">
         <v>171.6510369965586</v>
       </c>
       <c r="K33" t="n">
-        <v>443.7915755749563</v>
+        <v>404.9899963686785</v>
       </c>
       <c r="L33" t="n">
-        <v>803.8671434220407</v>
+        <v>765.0655642157629</v>
       </c>
       <c r="M33" t="n">
-        <v>1243.41521560453</v>
+        <v>1204.613636398252</v>
       </c>
       <c r="N33" t="n">
-        <v>1709.005462257329</v>
+        <v>1670.203883051051</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.709782308039</v>
+        <v>2073.908203101762</v>
       </c>
       <c r="P33" t="n">
-        <v>2417.385024107009</v>
+        <v>2378.583444900732</v>
       </c>
       <c r="Q33" t="n">
         <v>2571.133158238444</v>
@@ -6816,7 +6816,7 @@
         <v>1785.126786923927</v>
       </c>
       <c r="W33" t="n">
-        <v>1530.889430195725</v>
+        <v>1530.889430195726</v>
       </c>
       <c r="X33" t="n">
         <v>1323.037929990193</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>766.5918335364626</v>
+        <v>766.5918335364622</v>
       </c>
       <c r="C34" t="n">
-        <v>646.2853407260877</v>
+        <v>646.2853407260874</v>
       </c>
       <c r="D34" t="n">
-        <v>544.7983914312841</v>
+        <v>544.7983914312838</v>
       </c>
       <c r="E34" t="n">
-        <v>445.5149879664232</v>
+        <v>445.5149879664228</v>
       </c>
       <c r="F34" t="n">
-        <v>347.254730586045</v>
+        <v>347.2547305860446</v>
       </c>
       <c r="G34" t="n">
-        <v>228.1554938852784</v>
+        <v>228.155493885278</v>
       </c>
       <c r="H34" t="n">
         <v>130.3360316863842</v>
       </c>
       <c r="I34" t="n">
-        <v>80.85544136314918</v>
+        <v>80.85544136314921</v>
       </c>
       <c r="J34" t="n">
         <v>171.8321635231927</v>
@@ -6862,7 +6862,7 @@
         <v>420.5104206953815</v>
       </c>
       <c r="L34" t="n">
-        <v>780.9304683900706</v>
+        <v>780.9304683900705</v>
       </c>
       <c r="M34" t="n">
         <v>1168.741103077821</v>
@@ -6889,7 +6889,7 @@
         <v>1938.450235921698</v>
       </c>
       <c r="U34" t="n">
-        <v>1697.975636063436</v>
+        <v>1697.975636063437</v>
       </c>
       <c r="V34" t="n">
         <v>1491.920837975082</v>
@@ -6901,7 +6901,7 @@
         <v>1071.773497275168</v>
       </c>
       <c r="Y34" t="n">
-        <v>899.6106082491701</v>
+        <v>899.6106082491698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2026.389555818251</v>
+        <v>2026.389555818252</v>
       </c>
       <c r="C35" t="n">
-        <v>1706.056728995371</v>
+        <v>1706.056728995372</v>
       </c>
       <c r="D35" t="n">
-        <v>1396.420720506153</v>
+        <v>1396.420720506154</v>
       </c>
       <c r="E35" t="n">
-        <v>1059.262158025441</v>
+        <v>1059.262158025442</v>
       </c>
       <c r="F35" t="n">
-        <v>696.9059433533653</v>
+        <v>696.9059433533664</v>
       </c>
       <c r="G35" t="n">
         <v>330.4050197060599</v>
       </c>
       <c r="H35" t="n">
-        <v>80.85544136314918</v>
+        <v>80.85544136314921</v>
       </c>
       <c r="I35" t="n">
-        <v>80.85544136314918</v>
+        <v>80.85544136314921</v>
       </c>
       <c r="J35" t="n">
-        <v>264.8962462592806</v>
+        <v>432.3018952796336</v>
       </c>
       <c r="K35" t="n">
-        <v>591.4642233874945</v>
+        <v>769.2619691362452</v>
       </c>
       <c r="L35" t="n">
-        <v>1446.987040393798</v>
+        <v>1211.300183737603</v>
       </c>
       <c r="M35" t="n">
-        <v>1970.509163227508</v>
+        <v>1734.822306571313</v>
       </c>
       <c r="N35" t="n">
-        <v>2507.116229713029</v>
+        <v>2271.429373056834</v>
       </c>
       <c r="O35" t="n">
-        <v>3358.628765824053</v>
+        <v>2764.796948306728</v>
       </c>
       <c r="P35" t="n">
-        <v>3745.205575978616</v>
+        <v>3469.954479551058</v>
       </c>
       <c r="Q35" t="n">
-        <v>3987.335914421738</v>
+        <v>3922.276658747487</v>
       </c>
       <c r="R35" t="n">
-        <v>4042.772068157459</v>
+        <v>4042.77206815746</v>
       </c>
       <c r="S35" t="n">
         <v>3979.785686543</v>
@@ -6968,19 +6968,19 @@
         <v>3822.183017842707</v>
       </c>
       <c r="U35" t="n">
-        <v>3617.277578145288</v>
+        <v>3617.277578145289</v>
       </c>
       <c r="V35" t="n">
-        <v>3334.844380919249</v>
+        <v>3334.844380919251</v>
       </c>
       <c r="W35" t="n">
-        <v>3030.705415766668</v>
+        <v>3030.705415766669</v>
       </c>
       <c r="X35" t="n">
-        <v>2705.86934762312</v>
+        <v>2705.869347623121</v>
       </c>
       <c r="Y35" t="n">
-        <v>2364.35970576484</v>
+        <v>2364.359705764841</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>947.0622942051708</v>
+        <v>947.062294205171</v>
       </c>
       <c r="C36" t="n">
-        <v>772.6092649240438</v>
+        <v>772.6092649240441</v>
       </c>
       <c r="D36" t="n">
-        <v>623.6748552627926</v>
+        <v>623.6748552627928</v>
       </c>
       <c r="E36" t="n">
-        <v>464.4374002573371</v>
+        <v>464.4374002573372</v>
       </c>
       <c r="F36" t="n">
-        <v>317.9028422842221</v>
+        <v>317.9028422842222</v>
       </c>
       <c r="G36" t="n">
-        <v>181.5086218420126</v>
+        <v>181.5086218420127</v>
       </c>
       <c r="H36" t="n">
-        <v>90.70617114141395</v>
+        <v>90.70617114141398</v>
       </c>
       <c r="I36" t="n">
-        <v>80.85544136314918</v>
+        <v>80.85544136314921</v>
       </c>
       <c r="J36" t="n">
         <v>171.6510369965586</v>
       </c>
       <c r="K36" t="n">
-        <v>404.9899963686785</v>
+        <v>443.7915755749563</v>
       </c>
       <c r="L36" t="n">
-        <v>765.0655642157629</v>
+        <v>803.8671434220407</v>
       </c>
       <c r="M36" t="n">
-        <v>1204.613636398252</v>
+        <v>1243.41521560453</v>
       </c>
       <c r="N36" t="n">
         <v>1709.005462257329</v>
@@ -7053,7 +7053,7 @@
         <v>1785.126786923927</v>
       </c>
       <c r="W36" t="n">
-        <v>1530.889430195725</v>
+        <v>1530.889430195726</v>
       </c>
       <c r="X36" t="n">
         <v>1323.037929990193</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>766.5918335364623</v>
+        <v>766.5918335364628</v>
       </c>
       <c r="C37" t="n">
-        <v>646.2853407260875</v>
+        <v>646.2853407260881</v>
       </c>
       <c r="D37" t="n">
-        <v>544.7983914312839</v>
+        <v>544.7983914312845</v>
       </c>
       <c r="E37" t="n">
-        <v>445.514987966423</v>
+        <v>445.5149879664235</v>
       </c>
       <c r="F37" t="n">
-        <v>347.2547305860447</v>
+        <v>347.2547305860452</v>
       </c>
       <c r="G37" t="n">
-        <v>228.1554938852782</v>
+        <v>228.1554938852787</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3360316863839</v>
+        <v>130.3360316863842</v>
       </c>
       <c r="I37" t="n">
-        <v>80.85544136314918</v>
+        <v>80.85544136314921</v>
       </c>
       <c r="J37" t="n">
-        <v>171.8321635231929</v>
+        <v>171.8321635231928</v>
       </c>
       <c r="K37" t="n">
-        <v>420.5104206953818</v>
+        <v>420.5104206953815</v>
       </c>
       <c r="L37" t="n">
-        <v>780.9304683900708</v>
+        <v>780.9304683900706</v>
       </c>
       <c r="M37" t="n">
-        <v>1168.741103077822</v>
+        <v>1168.741103077821</v>
       </c>
       <c r="N37" t="n">
         <v>1553.898378956001</v>
@@ -7138,7 +7138,7 @@
         <v>1071.773497275168</v>
       </c>
       <c r="Y37" t="n">
-        <v>899.6106082491699</v>
+        <v>899.6106082491704</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2026.389555818249</v>
+        <v>2026.389555818252</v>
       </c>
       <c r="C38" t="n">
-        <v>1706.05672899537</v>
+        <v>1706.056728995372</v>
       </c>
       <c r="D38" t="n">
-        <v>1396.420720506151</v>
+        <v>1396.420720506153</v>
       </c>
       <c r="E38" t="n">
-        <v>1059.262158025439</v>
+        <v>1059.262158025441</v>
       </c>
       <c r="F38" t="n">
-        <v>696.9059433533644</v>
+        <v>696.9059433533658</v>
       </c>
       <c r="G38" t="n">
-        <v>330.4050197060599</v>
+        <v>330.40501970606</v>
       </c>
       <c r="H38" t="n">
-        <v>80.85544136314918</v>
+        <v>80.85544136314921</v>
       </c>
       <c r="I38" t="n">
-        <v>80.85544136314918</v>
+        <v>80.85544136314921</v>
       </c>
       <c r="J38" t="n">
         <v>432.3018952796336</v>
       </c>
       <c r="K38" t="n">
-        <v>758.8698724078477</v>
+        <v>758.8698724078474</v>
       </c>
       <c r="L38" t="n">
         <v>1200.908087009205</v>
       </c>
       <c r="M38" t="n">
-        <v>1734.822306571311</v>
+        <v>1724.430209842915</v>
       </c>
       <c r="N38" t="n">
-        <v>2271.429373056832</v>
+        <v>2261.037276328436</v>
       </c>
       <c r="O38" t="n">
-        <v>2764.796948306726</v>
+        <v>2764.796948306728</v>
       </c>
       <c r="P38" t="n">
-        <v>3469.954479551057</v>
+        <v>3469.954479551058</v>
       </c>
       <c r="Q38" t="n">
-        <v>3922.276658747485</v>
+        <v>3922.276658747487</v>
       </c>
       <c r="R38" t="n">
-        <v>4042.772068157459</v>
+        <v>4042.77206815746</v>
       </c>
       <c r="S38" t="n">
-        <v>3979.785686542999</v>
+        <v>3979.785686543</v>
       </c>
       <c r="T38" t="n">
-        <v>3822.183017842705</v>
+        <v>3822.183017842707</v>
       </c>
       <c r="U38" t="n">
-        <v>3617.277578145287</v>
+        <v>3617.277578145289</v>
       </c>
       <c r="V38" t="n">
-        <v>3334.844380919248</v>
+        <v>3334.844380919251</v>
       </c>
       <c r="W38" t="n">
-        <v>3030.705415766666</v>
+        <v>3030.705415766669</v>
       </c>
       <c r="X38" t="n">
-        <v>2705.869347623118</v>
+        <v>2705.869347623121</v>
       </c>
       <c r="Y38" t="n">
-        <v>2364.359705764839</v>
+        <v>2364.359705764841</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>947.0622942051708</v>
+        <v>947.062294205171</v>
       </c>
       <c r="C39" t="n">
-        <v>772.6092649240438</v>
+        <v>772.6092649240441</v>
       </c>
       <c r="D39" t="n">
-        <v>623.6748552627926</v>
+        <v>623.6748552627928</v>
       </c>
       <c r="E39" t="n">
-        <v>464.4374002573371</v>
+        <v>464.4374002573372</v>
       </c>
       <c r="F39" t="n">
-        <v>317.9028422842221</v>
+        <v>317.9028422842222</v>
       </c>
       <c r="G39" t="n">
-        <v>181.5086218420126</v>
+        <v>181.5086218420127</v>
       </c>
       <c r="H39" t="n">
-        <v>90.70617114141393</v>
+        <v>90.70617114141398</v>
       </c>
       <c r="I39" t="n">
-        <v>80.85544136314918</v>
+        <v>80.85544136314921</v>
       </c>
       <c r="J39" t="n">
-        <v>171.6510369965586</v>
+        <v>210.4526162028364</v>
       </c>
       <c r="K39" t="n">
-        <v>404.9899963686786</v>
+        <v>443.7915755749563</v>
       </c>
       <c r="L39" t="n">
-        <v>765.0655642157632</v>
+        <v>803.8671434220407</v>
       </c>
       <c r="M39" t="n">
-        <v>1204.613636398253</v>
+        <v>1243.41521560453</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.203883051051</v>
+        <v>1709.005462257329</v>
       </c>
       <c r="O39" t="n">
-        <v>2073.908203101762</v>
+        <v>2112.709782308039</v>
       </c>
       <c r="P39" t="n">
         <v>2417.385024107009</v>
@@ -7290,7 +7290,7 @@
         <v>1785.126786923927</v>
       </c>
       <c r="W39" t="n">
-        <v>1530.889430195725</v>
+        <v>1530.889430195726</v>
       </c>
       <c r="X39" t="n">
         <v>1323.037929990193</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>766.5918335364631</v>
+        <v>766.5918335364626</v>
       </c>
       <c r="C40" t="n">
-        <v>646.2853407260883</v>
+        <v>646.2853407260877</v>
       </c>
       <c r="D40" t="n">
-        <v>544.7983914312847</v>
+        <v>544.7983914312841</v>
       </c>
       <c r="E40" t="n">
-        <v>445.5149879664237</v>
+        <v>445.5149879664231</v>
       </c>
       <c r="F40" t="n">
-        <v>347.2547305860455</v>
+        <v>347.2547305860449</v>
       </c>
       <c r="G40" t="n">
-        <v>228.1554938852789</v>
+        <v>228.1554938852784</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3360316863842</v>
+        <v>130.3360316863841</v>
       </c>
       <c r="I40" t="n">
-        <v>80.85544136314918</v>
+        <v>80.85544136314921</v>
       </c>
       <c r="J40" t="n">
         <v>171.8321635231927</v>
       </c>
       <c r="K40" t="n">
-        <v>420.5104206953816</v>
+        <v>420.5104206953815</v>
       </c>
       <c r="L40" t="n">
-        <v>780.9304683900707</v>
+        <v>780.9304683900705</v>
       </c>
       <c r="M40" t="n">
         <v>1168.741103077822</v>
@@ -7351,31 +7351,31 @@
         <v>2174.452356520359</v>
       </c>
       <c r="Q40" t="n">
-        <v>2297.583389555208</v>
+        <v>2297.583389555207</v>
       </c>
       <c r="R40" t="n">
-        <v>2255.209512478765</v>
+        <v>2255.209512478764</v>
       </c>
       <c r="S40" t="n">
-        <v>2111.698637513898</v>
+        <v>2111.698637513897</v>
       </c>
       <c r="T40" t="n">
-        <v>1938.450235921699</v>
+        <v>1938.450235921698</v>
       </c>
       <c r="U40" t="n">
         <v>1697.975636063437</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.920837975083</v>
+        <v>1491.920837975082</v>
       </c>
       <c r="W40" t="n">
-        <v>1251.133358055654</v>
+        <v>1251.133358055653</v>
       </c>
       <c r="X40" t="n">
-        <v>1071.773497275169</v>
+        <v>1071.773497275168</v>
       </c>
       <c r="Y40" t="n">
-        <v>899.6106082491707</v>
+        <v>899.6106082491701</v>
       </c>
     </row>
     <row r="41">
@@ -7394,46 +7394,46 @@
         <v>1396.420720506153</v>
       </c>
       <c r="E41" t="n">
-        <v>1059.262158025441</v>
+        <v>1059.26215802544</v>
       </c>
       <c r="F41" t="n">
-        <v>696.9059433533653</v>
+        <v>696.9059433533648</v>
       </c>
       <c r="G41" t="n">
         <v>330.40501970606</v>
       </c>
       <c r="H41" t="n">
-        <v>80.8554413631492</v>
+        <v>80.85544136314918</v>
       </c>
       <c r="I41" t="n">
-        <v>80.8554413631492</v>
+        <v>80.85544136314918</v>
       </c>
       <c r="J41" t="n">
         <v>264.8962462592806</v>
       </c>
       <c r="K41" t="n">
-        <v>591.4642233874945</v>
+        <v>834.321224810496</v>
       </c>
       <c r="L41" t="n">
-        <v>1033.502437988852</v>
+        <v>1276.359439411854</v>
       </c>
       <c r="M41" t="n">
-        <v>2002.042958980466</v>
+        <v>1799.881562245564</v>
       </c>
       <c r="N41" t="n">
-        <v>2865.26119057416</v>
+        <v>2336.488628731085</v>
       </c>
       <c r="O41" t="n">
-        <v>3358.628765824054</v>
+        <v>2829.856203980979</v>
       </c>
       <c r="P41" t="n">
-        <v>3745.205575978616</v>
+        <v>3535.01373522531</v>
       </c>
       <c r="Q41" t="n">
-        <v>3987.335914421739</v>
+        <v>3987.335914421738</v>
       </c>
       <c r="R41" t="n">
-        <v>4042.77206815746</v>
+        <v>4042.772068157459</v>
       </c>
       <c r="S41" t="n">
         <v>3979.785686542999</v>
@@ -7445,7 +7445,7 @@
         <v>3617.277578145288</v>
       </c>
       <c r="V41" t="n">
-        <v>3334.844380919249</v>
+        <v>3334.84438091925</v>
       </c>
       <c r="W41" t="n">
         <v>3030.705415766668</v>
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>947.062294205171</v>
+        <v>947.0622942051708</v>
       </c>
       <c r="C42" t="n">
-        <v>772.6092649240441</v>
+        <v>772.6092649240438</v>
       </c>
       <c r="D42" t="n">
-        <v>623.6748552627928</v>
+        <v>623.6748552627926</v>
       </c>
       <c r="E42" t="n">
-        <v>464.4374002573372</v>
+        <v>464.4374002573371</v>
       </c>
       <c r="F42" t="n">
-        <v>317.9028422842222</v>
+        <v>317.9028422842221</v>
       </c>
       <c r="G42" t="n">
-        <v>181.5086218420127</v>
+        <v>181.5086218420126</v>
       </c>
       <c r="H42" t="n">
-        <v>90.70617114141396</v>
+        <v>90.70617114141393</v>
       </c>
       <c r="I42" t="n">
-        <v>80.8554413631492</v>
+        <v>80.85544136314918</v>
       </c>
       <c r="J42" t="n">
-        <v>210.4526162028364</v>
+        <v>171.6510369965586</v>
       </c>
       <c r="K42" t="n">
-        <v>443.7915755749563</v>
+        <v>443.7915755749553</v>
       </c>
       <c r="L42" t="n">
-        <v>803.8671434220407</v>
+        <v>803.8671434220399</v>
       </c>
       <c r="M42" t="n">
         <v>1243.41521560453</v>
       </c>
       <c r="N42" t="n">
-        <v>1709.005462257329</v>
+        <v>1709.005462257328</v>
       </c>
       <c r="O42" t="n">
         <v>2112.709782308039</v>
@@ -7527,7 +7527,7 @@
         <v>1785.126786923927</v>
       </c>
       <c r="W42" t="n">
-        <v>1530.889430195726</v>
+        <v>1530.889430195725</v>
       </c>
       <c r="X42" t="n">
         <v>1323.037929990193</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>766.5918335364627</v>
+        <v>766.5918335364623</v>
       </c>
       <c r="C43" t="n">
-        <v>646.2853407260878</v>
+        <v>646.2853407260875</v>
       </c>
       <c r="D43" t="n">
-        <v>544.7983914312842</v>
+        <v>544.7983914312839</v>
       </c>
       <c r="E43" t="n">
-        <v>445.5149879664232</v>
+        <v>445.5149879664229</v>
       </c>
       <c r="F43" t="n">
-        <v>347.254730586045</v>
+        <v>347.2547305860446</v>
       </c>
       <c r="G43" t="n">
-        <v>228.1554938852785</v>
+        <v>228.155493885278</v>
       </c>
       <c r="H43" t="n">
         <v>130.3360316863842</v>
       </c>
       <c r="I43" t="n">
-        <v>80.8554413631492</v>
+        <v>80.85544136314918</v>
       </c>
       <c r="J43" t="n">
         <v>171.8321635231927</v>
@@ -7600,7 +7600,7 @@
         <v>1938.450235921698</v>
       </c>
       <c r="U43" t="n">
-        <v>1697.975636063437</v>
+        <v>1697.975636063436</v>
       </c>
       <c r="V43" t="n">
         <v>1491.920837975082</v>
@@ -7612,7 +7612,7 @@
         <v>1071.773497275168</v>
       </c>
       <c r="Y43" t="n">
-        <v>899.6106082491702</v>
+        <v>899.6106082491699</v>
       </c>
     </row>
     <row r="44">
@@ -7637,46 +7637,46 @@
         <v>696.9059433533653</v>
       </c>
       <c r="G44" t="n">
-        <v>330.4050197060599</v>
+        <v>330.40501970606</v>
       </c>
       <c r="H44" t="n">
-        <v>80.85544136314918</v>
+        <v>80.85544136314921</v>
       </c>
       <c r="I44" t="n">
-        <v>80.85544136314918</v>
+        <v>80.85544136314921</v>
       </c>
       <c r="J44" t="n">
-        <v>432.3018952796336</v>
+        <v>264.8962462592806</v>
       </c>
       <c r="K44" t="n">
-        <v>758.8698724078474</v>
+        <v>775.9097664501469</v>
       </c>
       <c r="L44" t="n">
-        <v>1200.908087009205</v>
+        <v>1217.947981051505</v>
       </c>
       <c r="M44" t="n">
-        <v>1724.430209842915</v>
+        <v>1741.470103885215</v>
       </c>
       <c r="N44" t="n">
-        <v>2261.037276328436</v>
+        <v>2278.077170370736</v>
       </c>
       <c r="O44" t="n">
-        <v>3131.397031028448</v>
+        <v>3148.436925070748</v>
       </c>
       <c r="P44" t="n">
-        <v>3517.973841183011</v>
+        <v>3535.01373522531</v>
       </c>
       <c r="Q44" t="n">
-        <v>3970.296020379439</v>
+        <v>3987.335914421739</v>
       </c>
       <c r="R44" t="n">
-        <v>4042.772068157459</v>
+        <v>4042.77206815746</v>
       </c>
       <c r="S44" t="n">
-        <v>3979.785686542999</v>
+        <v>3979.785686543</v>
       </c>
       <c r="T44" t="n">
-        <v>3822.183017842706</v>
+        <v>3822.183017842707</v>
       </c>
       <c r="U44" t="n">
         <v>3617.277578145289</v>
@@ -7688,10 +7688,10 @@
         <v>3030.705415766668</v>
       </c>
       <c r="X44" t="n">
-        <v>2705.869347623121</v>
+        <v>2705.86934762312</v>
       </c>
       <c r="Y44" t="n">
-        <v>2364.359705764841</v>
+        <v>2364.35970576484</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>947.0622942051708</v>
+        <v>947.062294205171</v>
       </c>
       <c r="C45" t="n">
-        <v>772.6092649240438</v>
+        <v>772.6092649240441</v>
       </c>
       <c r="D45" t="n">
-        <v>623.6748552627926</v>
+        <v>623.6748552627928</v>
       </c>
       <c r="E45" t="n">
-        <v>464.4374002573371</v>
+        <v>464.4374002573372</v>
       </c>
       <c r="F45" t="n">
-        <v>317.9028422842221</v>
+        <v>317.9028422842222</v>
       </c>
       <c r="G45" t="n">
-        <v>181.5086218420126</v>
+        <v>181.5086218420127</v>
       </c>
       <c r="H45" t="n">
-        <v>90.70617114141395</v>
+        <v>90.70617114141396</v>
       </c>
       <c r="I45" t="n">
-        <v>80.85544136314918</v>
+        <v>80.85544136314921</v>
       </c>
       <c r="J45" t="n">
-        <v>171.6510369965586</v>
+        <v>171.6510369965587</v>
       </c>
       <c r="K45" t="n">
-        <v>404.9899963686785</v>
+        <v>404.9899963686786</v>
       </c>
       <c r="L45" t="n">
-        <v>765.0655642157629</v>
+        <v>765.0655642157632</v>
       </c>
       <c r="M45" t="n">
-        <v>1204.613636398252</v>
+        <v>1204.613636398253</v>
       </c>
       <c r="N45" t="n">
         <v>1670.203883051051</v>
@@ -7743,7 +7743,7 @@
         <v>2073.908203101762</v>
       </c>
       <c r="P45" t="n">
-        <v>2417.385024107009</v>
+        <v>2378.583444900733</v>
       </c>
       <c r="Q45" t="n">
         <v>2571.133158238444</v>
@@ -7764,7 +7764,7 @@
         <v>1785.126786923927</v>
       </c>
       <c r="W45" t="n">
-        <v>1530.889430195725</v>
+        <v>1530.889430195726</v>
       </c>
       <c r="X45" t="n">
         <v>1323.037929990193</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>766.5918335364626</v>
+        <v>766.5918335364629</v>
       </c>
       <c r="C46" t="n">
-        <v>646.2853407260877</v>
+        <v>646.2853407260881</v>
       </c>
       <c r="D46" t="n">
-        <v>544.7983914312841</v>
+        <v>544.7983914312845</v>
       </c>
       <c r="E46" t="n">
-        <v>445.5149879664231</v>
+        <v>445.5149879664234</v>
       </c>
       <c r="F46" t="n">
-        <v>347.2547305860449</v>
+        <v>347.2547305860451</v>
       </c>
       <c r="G46" t="n">
-        <v>228.1554938852784</v>
+        <v>228.1554938852785</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3360316863841</v>
+        <v>130.3360316863842</v>
       </c>
       <c r="I46" t="n">
-        <v>80.85544136314918</v>
+        <v>80.85544136314921</v>
       </c>
       <c r="J46" t="n">
-        <v>171.8321635231928</v>
+        <v>171.8321635231927</v>
       </c>
       <c r="K46" t="n">
         <v>420.5104206953815</v>
@@ -7828,28 +7828,28 @@
         <v>2297.583389555207</v>
       </c>
       <c r="R46" t="n">
-        <v>2255.209512478764</v>
+        <v>2255.209512478765</v>
       </c>
       <c r="S46" t="n">
-        <v>2111.698637513897</v>
+        <v>2111.698637513898</v>
       </c>
       <c r="T46" t="n">
-        <v>1938.450235921698</v>
+        <v>1938.450235921699</v>
       </c>
       <c r="U46" t="n">
-        <v>1697.975636063436</v>
+        <v>1697.975636063437</v>
       </c>
       <c r="V46" t="n">
         <v>1491.920837975082</v>
       </c>
       <c r="W46" t="n">
-        <v>1251.133358055653</v>
+        <v>1251.133358055654</v>
       </c>
       <c r="X46" t="n">
-        <v>1071.773497275168</v>
+        <v>1071.773497275169</v>
       </c>
       <c r="Y46" t="n">
-        <v>899.6106082491701</v>
+        <v>899.6106082491706</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>248.5418848924784</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>264.2184488174851</v>
+        <v>263.068871692334</v>
       </c>
       <c r="M2" t="n">
-        <v>258.7982670747705</v>
+        <v>258.798267074771</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>257.8650974440892</v>
       </c>
       <c r="O2" t="n">
-        <v>257.4006681440331</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>259.6850296027678</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>166.2934728218568</v>
+        <v>166.2934728218573</v>
       </c>
       <c r="L3" t="n">
-        <v>165.8568365022205</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>170.5860677695166</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>159.7937459308316</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>169.8987011667913</v>
       </c>
       <c r="P3" t="n">
-        <v>162.426441261828</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.4338079335193</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>167.3778177951029</v>
+        <v>167.3778177951033</v>
       </c>
       <c r="N4" t="n">
-        <v>156.137578312731</v>
+        <v>156.1375783127314</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>247.3923077673269</v>
+        <v>247.3923077673274</v>
       </c>
       <c r="L5" t="n">
-        <v>264.2184488174851</v>
+        <v>264.2184488174855</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>258.798267074771</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>257.8650974440892</v>
       </c>
       <c r="O5" t="n">
-        <v>258.5502452691845</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>259.6850296027674</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>165.1438956967058</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>167.0064136273724</v>
       </c>
       <c r="M6" t="n">
-        <v>169.4364906443647</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>159.7937459308311</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>171.0482782919422</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>162.4264412618285</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.4338079335193</v>
+        <v>168.4338079335198</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8380,10 +8380,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>167.3778177951029</v>
+        <v>167.3778177951033</v>
       </c>
       <c r="N7" t="n">
-        <v>156.137578312731</v>
+        <v>156.1375783127314</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L8" t="n">
-        <v>278.1154692732874</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
         <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
         <v>275.3651681344982</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4738844625619</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O9" t="n">
         <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>66.4264755160379</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>66.42647551603605</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.104542349008284</v>
+        <v>3.104542349008341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,22 +8924,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>16.64876199856053</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>26.47007854028959</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>39.1935143497754</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.19351434977546</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>2.055774892508254</v>
@@ -9164,22 +9164,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>138.9119250207838</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>404.1638900430257</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>39.19351434977546</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>2.055774892508254</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>241.68069575064</v>
+        <v>138.9119250207829</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39.19351434977574</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>39.19351434977546</v>
       </c>
       <c r="R21" t="n">
         <v>2.055774892508254</v>
@@ -9638,22 +9638,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>391.9972809621786</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>136.5652206211</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>39.19351434977546</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>39.19351434977574</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>307.3971156236225</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>70.2373761788852</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>39.1935143497754</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>39.19351434977546</v>
       </c>
       <c r="R27" t="n">
         <v>2.055774892508254</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,19 +10118,19 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>391.9972809621777</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>79.29902736028708</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>39.19351434977543</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.19351434977546</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>2.055774892508254</v>
@@ -10349,10 +10349,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>10.49706740242101</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>8.150363002739823</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.19351434977551</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>39.19351434977546</v>
       </c>
       <c r="R33" t="n">
         <v>2.055774892508254</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>10.49706740242186</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>361.7625867284142</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>39.19351434977551</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>39.19351434977557</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>10.49706740241993</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>10.49706740242169</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>39.19351434977551</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>39.19351434977426</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>2.055774892508225</v>
+        <v>2.055774892508254</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,25 +11060,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>245.3101024474763</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>329.9102677860327</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>39.19351434977551</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>39.19351434977455</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>2.055774892508254</v>
+        <v>2.055774892508225</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>186.3086293562145</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>17.21201418414047</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>39.19351434977574</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>39.19351434977446</v>
       </c>
       <c r="R45" t="n">
-        <v>2.055774892508254</v>
+        <v>2.055774892508225</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>45.01398041683331</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>111.2193237244456</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>38.50258809386062</v>
       </c>
       <c r="U11" t="n">
         <v>251.0023041565938</v>
       </c>
       <c r="V11" t="n">
-        <v>165.2848760878236</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>145.1105688536576</v>
       </c>
       <c r="I13" t="n">
-        <v>97.55505070771751</v>
+        <v>97.55505070771753</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>61.86296002149523</v>
+        <v>90.7302812835031</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>223.1153496254559</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>39.25488750693853</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>43.79685881536105</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>204.170035229647</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>287.2217815519468</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>124.6649240311521</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0516375501157</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.9846607932621</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.12917763635946</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>157.0181521872512</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>103.6248573472611</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>101.6241892075702</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2.000668139689383</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>102.6371038312081</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.9877535160517027</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>103.6248573472594</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>103.6248573472589</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>103.6248573472595</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>103.6248573472593</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>101.6241892075702</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.000668139689833</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.9877535160518818</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>102.6371038312081</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>103.6248573472592</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1153722.630383477</v>
+        <v>1153722.630383478</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26314,10 @@
         <v>184734.3982194637</v>
       </c>
       <c r="C2" t="n">
+        <v>184734.3982194638</v>
+      </c>
+      <c r="D2" t="n">
         <v>184734.3982194637</v>
-      </c>
-      <c r="D2" t="n">
-        <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
         <v>151203.9268980852</v>
@@ -26326,22 +26326,22 @@
         <v>166770.3762501574</v>
       </c>
       <c r="G2" t="n">
-        <v>184174.8239897885</v>
+        <v>184174.8239897886</v>
       </c>
       <c r="H2" t="n">
         <v>184174.8239897886</v>
       </c>
       <c r="I2" t="n">
-        <v>184174.8239897886</v>
+        <v>184174.8239897885</v>
       </c>
       <c r="J2" t="n">
-        <v>184174.8239897886</v>
+        <v>184174.8239897885</v>
       </c>
       <c r="K2" t="n">
-        <v>184174.8239897886</v>
+        <v>184174.8239897885</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194637</v>
@@ -26350,10 +26350,10 @@
         <v>184734.3982194637</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194639</v>
       </c>
     </row>
     <row r="3">
@@ -26363,25 +26363,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9534.930939075006</v>
+        <v>9534.930939075159</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4870.721432111535</v>
+        <v>4870.721432111394</v>
       </c>
       <c r="E3" t="n">
-        <v>1084660.08925105</v>
+        <v>1084660.089251049</v>
       </c>
       <c r="F3" t="n">
-        <v>69858.68434903704</v>
+        <v>69858.68434903772</v>
       </c>
       <c r="G3" t="n">
-        <v>35037.48705228883</v>
+        <v>35037.48705228885</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>38514.71457308542</v>
+        <v>38514.71457308543</v>
       </c>
       <c r="M3" t="n">
-        <v>189418.199196743</v>
+        <v>189418.1991967428</v>
       </c>
       <c r="N3" t="n">
-        <v>54410.05556658351</v>
+        <v>54410.0555665838</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>392085.4318580095</v>
       </c>
       <c r="E4" t="n">
-        <v>7550.312825172648</v>
+        <v>7550.312825172668</v>
       </c>
       <c r="F4" t="n">
-        <v>24102.04905904934</v>
+        <v>24102.04905904936</v>
       </c>
       <c r="G4" t="n">
-        <v>68360.77744884379</v>
+        <v>68360.77744884386</v>
       </c>
       <c r="H4" t="n">
+        <v>68360.77744884384</v>
+      </c>
+      <c r="I4" t="n">
+        <v>68360.77744884384</v>
+      </c>
+      <c r="J4" t="n">
         <v>68360.77744884382</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>68360.77744884382</v>
       </c>
-      <c r="J4" t="n">
-        <v>68360.77744884384</v>
-      </c>
-      <c r="K4" t="n">
-        <v>68360.77744884384</v>
-      </c>
       <c r="L4" t="n">
-        <v>71312.72809452703</v>
+        <v>71312.72809452705</v>
       </c>
       <c r="M4" t="n">
-        <v>71312.72809452703</v>
+        <v>71312.72809452708</v>
       </c>
       <c r="N4" t="n">
-        <v>71312.728094527</v>
+        <v>71312.72809452705</v>
       </c>
       <c r="O4" t="n">
-        <v>71312.72809452706</v>
+        <v>71312.72809452696</v>
       </c>
       <c r="P4" t="n">
-        <v>71312.72809452703</v>
+        <v>71312.72809452699</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35357.48365792786</v>
+        <v>35357.48365792789</v>
       </c>
       <c r="C5" t="n">
-        <v>35357.48365792786</v>
+        <v>35357.48365792789</v>
       </c>
       <c r="D5" t="n">
         <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>72170.56689790294</v>
+        <v>72170.56689790289</v>
       </c>
       <c r="F5" t="n">
-        <v>85848.3672835827</v>
+        <v>85848.36728358272</v>
       </c>
       <c r="G5" t="n">
+        <v>89530.32540733131</v>
+      </c>
+      <c r="H5" t="n">
+        <v>89530.32540733131</v>
+      </c>
+      <c r="I5" t="n">
+        <v>89530.32540733131</v>
+      </c>
+      <c r="J5" t="n">
         <v>89530.32540733129</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>89530.32540733129</v>
       </c>
-      <c r="I5" t="n">
-        <v>89530.32540733129</v>
-      </c>
-      <c r="J5" t="n">
-        <v>89530.32540733131</v>
-      </c>
-      <c r="K5" t="n">
-        <v>89530.32540733131</v>
-      </c>
       <c r="L5" t="n">
+        <v>88942.38178515941</v>
+      </c>
+      <c r="M5" t="n">
+        <v>88942.38178515941</v>
+      </c>
+      <c r="N5" t="n">
+        <v>88942.38178515941</v>
+      </c>
+      <c r="O5" t="n">
         <v>88942.38178515938</v>
       </c>
-      <c r="M5" t="n">
-        <v>88942.38178515938</v>
-      </c>
-      <c r="N5" t="n">
-        <v>88942.38178515938</v>
-      </c>
-      <c r="O5" t="n">
-        <v>88942.38178515939</v>
-      </c>
       <c r="P5" t="n">
-        <v>88942.38178515938</v>
+        <v>88942.38178515941</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254773.8746084372</v>
+        <v>-254773.8746084373</v>
       </c>
       <c r="C6" t="n">
-        <v>-245238.9436693622</v>
+        <v>-245238.9436693621</v>
       </c>
       <c r="D6" t="n">
-        <v>-248532.5911513144</v>
+        <v>-248532.5911513143</v>
       </c>
       <c r="E6" t="n">
-        <v>-1013177.04207604</v>
+        <v>-1013549.602868499</v>
       </c>
       <c r="F6" t="n">
-        <v>-13038.72444151166</v>
+        <v>-13238.3246856158</v>
       </c>
       <c r="G6" t="n">
-        <v>-8753.765918675374</v>
+        <v>-8759.983410116252</v>
       </c>
       <c r="H6" t="n">
-        <v>26283.72113361344</v>
+        <v>26277.50364217266</v>
       </c>
       <c r="I6" t="n">
-        <v>26283.72113361349</v>
+        <v>26277.50364217254</v>
       </c>
       <c r="J6" t="n">
-        <v>18839.41718961863</v>
+        <v>18833.19969817777</v>
       </c>
       <c r="K6" t="n">
-        <v>26283.72113361346</v>
+        <v>26277.5036421726</v>
       </c>
       <c r="L6" t="n">
-        <v>-14035.4262333081</v>
+        <v>-14035.42623330811</v>
       </c>
       <c r="M6" t="n">
-        <v>-164938.9108569657</v>
+        <v>-164938.9108569656</v>
       </c>
       <c r="N6" t="n">
-        <v>-29930.76722680614</v>
+        <v>-29930.76722680654</v>
       </c>
       <c r="O6" t="n">
-        <v>24479.28833977737</v>
+        <v>24479.28833977731</v>
       </c>
       <c r="P6" t="n">
-        <v>24479.28833977735</v>
+        <v>24479.28833977751</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="H2" t="n">
         <v>43.79685881536106</v>
@@ -26713,19 +26713,19 @@
         <v>43.79685881536106</v>
       </c>
       <c r="L2" t="n">
+        <v>48.14339321635679</v>
+      </c>
+      <c r="M2" t="n">
+        <v>48.14339321635683</v>
+      </c>
+      <c r="N2" t="n">
         <v>48.1433932163568</v>
       </c>
-      <c r="M2" t="n">
-        <v>48.14339321635679</v>
-      </c>
-      <c r="N2" t="n">
-        <v>48.14339321635681</v>
-      </c>
       <c r="O2" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="P2" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
     </row>
     <row r="3">
@@ -26771,13 +26771,13 @@
         <v>1075.45318462661</v>
       </c>
       <c r="N3" t="n">
+        <v>1075.45318462661</v>
+      </c>
+      <c r="O3" t="n">
         <v>1075.453184626611</v>
       </c>
-      <c r="O3" t="n">
-        <v>1075.45318462661</v>
-      </c>
       <c r="P3" t="n">
-        <v>1075.45318462661</v>
+        <v>1075.453184626611</v>
       </c>
     </row>
     <row r="4">
@@ -26787,34 +26787,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.4520338474978</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="C4" t="n">
-        <v>28.4520338474978</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="D4" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>804.2251050638686</v>
+        <v>804.2251050638677</v>
       </c>
       <c r="F4" t="n">
+        <v>1026.373155571096</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1026.373155571096</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1026.373155571096</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1026.373155571096</v>
+      </c>
+      <c r="J4" t="n">
         <v>1026.373155571095</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>1026.373155571095</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1026.373155571095</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1026.373155571095</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1026.373155571096</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1026.373155571096</v>
       </c>
       <c r="L4" t="n">
         <v>1010.693017039365</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48.14339321635678</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>1067.600023395401</v>
       </c>
       <c r="F3" t="n">
-        <v>7.853161231209469</v>
+        <v>7.853161231209924</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.4520338474978</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>15.68013853173079</v>
+        <v>15.68013853173034</v>
       </c>
       <c r="E4" t="n">
-        <v>760.09293268464</v>
+        <v>760.0929326846391</v>
       </c>
       <c r="F4" t="n">
-        <v>222.1480505072268</v>
+        <v>222.1480505072279</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>760.09293268464</v>
+        <v>760.0929326846391</v>
       </c>
       <c r="N4" t="n">
-        <v>222.1480505072267</v>
+        <v>222.1480505072279</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.4520338474978</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15.68013853173079</v>
+        <v>15.68013853173034</v>
       </c>
       <c r="M4" t="n">
-        <v>760.09293268464</v>
+        <v>760.0929326846391</v>
       </c>
       <c r="N4" t="n">
-        <v>222.1480505072268</v>
+        <v>222.1480505072279</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>329.6224902078069</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>353.478336224764</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>378.4240118942137</v>
+        <v>378.4240118942132</v>
       </c>
       <c r="G2" t="n">
-        <v>386.8507036676373</v>
+        <v>386.8507036676368</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>320.7889348699148</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>361.1773872431771</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>116.6171785458856</v>
       </c>
       <c r="G3" t="n">
-        <v>108.8914833157128</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>87.17489282362</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>71.70580030514533</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>143.2311372563396</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>200.8808306680988</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>223.2429493134218</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>177.2306619298061</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>151.379946334439</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>138.7947872511296</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>124.8815198150113</v>
+        <v>124.8815198150117</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>126.9984410797605</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27579,7 +27579,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.71000940419658</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>258.0709644890927</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.132619504597</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>354.2818078159823</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>353.4783362247636</v>
       </c>
       <c r="F5" t="n">
-        <v>378.4240118942137</v>
+        <v>390.6061865656291</v>
       </c>
       <c r="G5" t="n">
-        <v>386.8507036676373</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>121.4170840936519</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8995067425266</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>138.0811498023691</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,22 +27701,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>129.1930466079027</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>116.6171785458856</v>
       </c>
       <c r="G6" t="n">
-        <v>113.0295570765924</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>64.33608143853861</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>71.70580030514533</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27752,7 +27752,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>204.3485533019275</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.2306619298066</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>117.9819287990709</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>116.969014175433</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>133.7751386599418</v>
+        <v>137.2136283893732</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>64.90714626917497</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>261.5094542185246</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.5897841309178</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>110.9840999563004</v>
       </c>
       <c r="S8" t="n">
         <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27941,16 +27941,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>99.21849105784395</v>
       </c>
       <c r="H9" t="n">
-        <v>74.11041813112978</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27989,16 +27989,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="10">
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>51.15799802486843</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28056,7 +28056,7 @@
         <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>135.0922092853651</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28065,7 +28065,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="C17" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="D17" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="E17" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="F17" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="G17" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="H17" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="I17" t="n">
-        <v>43.79685881536105</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="T17" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="U17" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="V17" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="W17" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="X17" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="Y17" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="C19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="D19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="E19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="F19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="G19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="H19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="I19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="J19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="K19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="L19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="M19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="N19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="O19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="P19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="Q19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="R19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="S19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="T19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="U19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="V19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="W19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="X19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.79685881536103</v>
+        <v>43.79685881536106</v>
       </c>
     </row>
     <row r="20">
@@ -29293,7 +29293,7 @@
         <v>43.79685881536106</v>
       </c>
       <c r="I26" t="n">
-        <v>43.79685881536106</v>
+        <v>43.79685881536105</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="C32" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="D32" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="E32" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="F32" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="G32" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="H32" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="I32" t="n">
         <v>43.79685881536105</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="T32" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="U32" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="V32" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="W32" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="X32" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="Y32" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="C34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="D34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="E34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="F34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="G34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="H34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="I34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="J34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="K34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="L34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="M34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="N34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="O34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="P34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="R34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="S34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="T34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="U34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="V34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="W34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="X34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.1433932163568</v>
+        <v>48.14339321635679</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="C35" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="D35" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="E35" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="F35" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="G35" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="H35" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="I35" t="n">
         <v>43.79685881536105</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="T35" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="U35" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="V35" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="W35" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="X35" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="Y35" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="C37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="D37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="E37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="F37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="G37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="H37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="I37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="J37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="K37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="L37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="M37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="N37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="O37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="P37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="R37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="S37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="T37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="U37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="V37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="W37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="X37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.14339321635679</v>
+        <v>48.14339321635683</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="C38" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="D38" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="E38" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="F38" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="G38" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="H38" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="I38" t="n">
-        <v>43.79685881536102</v>
+        <v>43.79685881536105</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="T38" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="U38" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="V38" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="W38" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="X38" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="Y38" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="C40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="D40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="E40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="F40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="G40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="H40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="I40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="J40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="K40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="L40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="M40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="N40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="O40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="P40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="R40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="S40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="T40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="U40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="V40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="W40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="X40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.14339321635681</v>
+        <v>48.1433932163568</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="C41" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="D41" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="E41" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="F41" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="G41" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="H41" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="I41" t="n">
-        <v>43.79685881536105</v>
+        <v>43.79685881536102</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="T41" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="U41" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="V41" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="W41" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="X41" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="Y41" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="C43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="D43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="E43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="F43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="G43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="H43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="I43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="J43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="K43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="L43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="M43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="N43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="O43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="P43" t="n">
-        <v>48.14339321635663</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="R43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="S43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="T43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="U43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="V43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="W43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="X43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="C44" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="D44" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="E44" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="F44" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="G44" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="H44" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="I44" t="n">
-        <v>43.79685881536105</v>
+        <v>43.79685881536102</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="T44" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="U44" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="V44" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="W44" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="X44" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="Y44" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="C46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="D46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="E46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="F46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="G46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="H46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="I46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="J46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="K46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="L46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="M46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="N46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635697</v>
       </c>
       <c r="O46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="P46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="R46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="S46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="T46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="U46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="V46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="W46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="X46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.14339321635681</v>
+        <v>48.14339321635677</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.291859390534272</v>
+        <v>4.29185939053427</v>
       </c>
       <c r="H11" t="n">
-        <v>43.95400498330913</v>
+        <v>43.9540049833091</v>
       </c>
       <c r="I11" t="n">
-        <v>165.4619091535727</v>
+        <v>165.4619091535726</v>
       </c>
       <c r="J11" t="n">
-        <v>364.2662009473585</v>
+        <v>364.2662009473584</v>
       </c>
       <c r="K11" t="n">
-        <v>545.9406089486744</v>
+        <v>545.9406089486741</v>
       </c>
       <c r="L11" t="n">
-        <v>677.2876007717377</v>
+        <v>677.2876007717374</v>
       </c>
       <c r="M11" t="n">
-        <v>753.6129552081516</v>
+        <v>753.6129552081512</v>
       </c>
       <c r="N11" t="n">
-        <v>765.8072007015071</v>
+        <v>765.8072007015068</v>
       </c>
       <c r="O11" t="n">
-        <v>723.1300238868819</v>
+        <v>723.1300238868815</v>
       </c>
       <c r="P11" t="n">
-        <v>617.174745183067</v>
+        <v>617.1747451830666</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.4725307595582</v>
+        <v>463.472530759558</v>
       </c>
       <c r="R11" t="n">
-        <v>269.5985124406487</v>
+        <v>269.5985124406486</v>
       </c>
       <c r="S11" t="n">
-        <v>97.80074586179983</v>
+        <v>97.80074586179978</v>
       </c>
       <c r="T11" t="n">
         <v>18.78761448206378</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3433487512427417</v>
+        <v>0.3433487512427416</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.296347220133504</v>
+        <v>2.296347220133503</v>
       </c>
       <c r="H12" t="n">
-        <v>22.17787973128937</v>
+        <v>22.17787973128936</v>
       </c>
       <c r="I12" t="n">
-        <v>79.0628319212632</v>
+        <v>79.06283192126317</v>
       </c>
       <c r="J12" t="n">
-        <v>216.9544538109466</v>
+        <v>216.9544538109465</v>
       </c>
       <c r="K12" t="n">
-        <v>370.8097175598913</v>
+        <v>370.8097175598912</v>
       </c>
       <c r="L12" t="n">
-        <v>498.5994260206541</v>
+        <v>498.5994260206539</v>
       </c>
       <c r="M12" t="n">
-        <v>581.8420127504935</v>
+        <v>581.8420127504932</v>
       </c>
       <c r="N12" t="n">
-        <v>597.2416395030556</v>
+        <v>597.2416395030552</v>
       </c>
       <c r="O12" t="n">
-        <v>546.3594195200973</v>
+        <v>546.359419520097</v>
       </c>
       <c r="P12" t="n">
-        <v>438.5016020621601</v>
+        <v>438.5016020621599</v>
       </c>
       <c r="Q12" t="n">
-        <v>293.126708310375</v>
+        <v>293.1267083103749</v>
       </c>
       <c r="R12" t="n">
-        <v>142.5749616149557</v>
+        <v>142.5749616149556</v>
       </c>
       <c r="S12" t="n">
-        <v>42.65364244414642</v>
+        <v>42.6536424441464</v>
       </c>
       <c r="T12" t="n">
-        <v>9.255890768871446</v>
+        <v>9.25589076887144</v>
       </c>
       <c r="U12" t="n">
         <v>0.1510754750087832</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.92518037005728</v>
+        <v>1.925180370057279</v>
       </c>
       <c r="H13" t="n">
-        <v>17.11660365378201</v>
+        <v>17.116603653782</v>
       </c>
       <c r="I13" t="n">
-        <v>57.89542421954077</v>
+        <v>57.89542421954075</v>
       </c>
       <c r="J13" t="n">
-        <v>136.1102521630497</v>
+        <v>136.1102521630496</v>
       </c>
       <c r="K13" t="n">
-        <v>223.6709557212003</v>
+        <v>223.6709557212002</v>
       </c>
       <c r="L13" t="n">
-        <v>286.2218161083342</v>
+        <v>286.2218161083341</v>
       </c>
       <c r="M13" t="n">
-        <v>301.7807738263425</v>
+        <v>301.7807738263424</v>
       </c>
       <c r="N13" t="n">
-        <v>294.6051015379475</v>
+        <v>294.6051015379473</v>
       </c>
       <c r="O13" t="n">
-        <v>272.1154944877327</v>
+        <v>272.1154944877326</v>
       </c>
       <c r="P13" t="n">
-        <v>232.8418149385641</v>
+        <v>232.8418149385639</v>
       </c>
       <c r="Q13" t="n">
         <v>161.2076035327055</v>
       </c>
       <c r="R13" t="n">
-        <v>86.56311009366641</v>
+        <v>86.56311009366638</v>
       </c>
       <c r="S13" t="n">
-        <v>33.55064335818005</v>
+        <v>33.55064335818003</v>
       </c>
       <c r="T13" t="n">
-        <v>8.225770672062923</v>
+        <v>8.22577067206292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1050098383667609</v>
+        <v>0.1050098383667608</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.32342988794617</v>
+        <v>4.323429887946169</v>
       </c>
       <c r="H38" t="n">
-        <v>44.27732633992873</v>
+        <v>44.27732633992872</v>
       </c>
       <c r="I38" t="n">
         <v>166.6790307550449</v>
       </c>
       <c r="J38" t="n">
-        <v>366.9457074520716</v>
+        <v>366.9457074520715</v>
       </c>
       <c r="K38" t="n">
-        <v>549.9564946088331</v>
+        <v>549.9564946088329</v>
       </c>
       <c r="L38" t="n">
-        <v>682.2696620420659</v>
+        <v>682.2696620420656</v>
       </c>
       <c r="M38" t="n">
-        <v>759.1564583118285</v>
+        <v>759.1564583118284</v>
       </c>
       <c r="N38" t="n">
-        <v>771.4404034809556</v>
+        <v>771.4404034809555</v>
       </c>
       <c r="O38" t="n">
-        <v>728.4492975326908</v>
+        <v>728.4492975326907</v>
       </c>
       <c r="P38" t="n">
-        <v>621.7146221740197</v>
+        <v>621.7146221740196</v>
       </c>
       <c r="Q38" t="n">
-        <v>466.8817893119473</v>
+        <v>466.8817893119472</v>
       </c>
       <c r="R38" t="n">
-        <v>271.5816526986989</v>
+        <v>271.5816526986988</v>
       </c>
       <c r="S38" t="n">
-        <v>98.52015857157345</v>
+        <v>98.52015857157343</v>
       </c>
       <c r="T38" t="n">
-        <v>18.92581433448437</v>
+        <v>18.92581433448436</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3458743910356936</v>
+        <v>0.3458743910356935</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.313238925423276</v>
+        <v>2.313238925423275</v>
       </c>
       <c r="H39" t="n">
-        <v>22.34101804290375</v>
+        <v>22.34101804290374</v>
       </c>
       <c r="I39" t="n">
-        <v>79.64441037093297</v>
+        <v>79.64441037093296</v>
       </c>
       <c r="J39" t="n">
         <v>218.5503495286964</v>
@@ -33977,16 +33977,16 @@
         <v>373.5373575320559</v>
       </c>
       <c r="L39" t="n">
-        <v>502.2670745749091</v>
+        <v>502.267074574909</v>
       </c>
       <c r="M39" t="n">
-        <v>586.1219856215027</v>
+        <v>586.1219856215026</v>
       </c>
       <c r="N39" t="n">
-        <v>601.6348905205036</v>
+        <v>601.6348905205035</v>
       </c>
       <c r="O39" t="n">
-        <v>550.3783859098089</v>
+        <v>550.3783859098088</v>
       </c>
       <c r="P39" t="n">
         <v>441.7271769082394</v>
@@ -34001,7 +34001,7 @@
         <v>42.96739846126125</v>
       </c>
       <c r="T39" t="n">
-        <v>9.323976195017499</v>
+        <v>9.323976195017497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1521867714094261</v>
@@ -34047,40 +34047,40 @@
         <v>17.24251171417747</v>
       </c>
       <c r="I40" t="n">
-        <v>58.32129729089883</v>
+        <v>58.32129729089882</v>
       </c>
       <c r="J40" t="n">
         <v>137.1114658498549</v>
       </c>
       <c r="K40" t="n">
-        <v>225.3162573693128</v>
+        <v>225.3162573693127</v>
       </c>
       <c r="L40" t="n">
-        <v>288.3272357603868</v>
+        <v>288.3272357603867</v>
       </c>
       <c r="M40" t="n">
         <v>304.0006436478138</v>
       </c>
       <c r="N40" t="n">
-        <v>296.7721878167172</v>
+        <v>296.7721878167171</v>
       </c>
       <c r="O40" t="n">
-        <v>274.1171494192549</v>
+        <v>274.1171494192548</v>
       </c>
       <c r="P40" t="n">
-        <v>234.5545765290561</v>
+        <v>234.554576529056</v>
       </c>
       <c r="Q40" t="n">
         <v>162.3934308786182</v>
       </c>
       <c r="R40" t="n">
-        <v>87.19985985513466</v>
+        <v>87.19985985513465</v>
       </c>
       <c r="S40" t="n">
         <v>33.79743860539691</v>
       </c>
       <c r="T40" t="n">
-        <v>8.286278635647653</v>
+        <v>8.286278635647651</v>
       </c>
       <c r="U40" t="n">
         <v>0.1057822804550766</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.323429887946169</v>
+        <v>4.32342988794617</v>
       </c>
       <c r="H41" t="n">
-        <v>44.27732633992872</v>
+        <v>44.27732633992873</v>
       </c>
       <c r="I41" t="n">
         <v>166.6790307550449</v>
       </c>
       <c r="J41" t="n">
-        <v>366.9457074520715</v>
+        <v>366.9457074520716</v>
       </c>
       <c r="K41" t="n">
-        <v>549.9564946088329</v>
+        <v>549.9564946088331</v>
       </c>
       <c r="L41" t="n">
-        <v>682.2696620420656</v>
+        <v>682.2696620420659</v>
       </c>
       <c r="M41" t="n">
-        <v>759.1564583118284</v>
+        <v>759.1564583118285</v>
       </c>
       <c r="N41" t="n">
-        <v>771.4404034809555</v>
+        <v>771.4404034809556</v>
       </c>
       <c r="O41" t="n">
-        <v>728.4492975326907</v>
+        <v>728.4492975326908</v>
       </c>
       <c r="P41" t="n">
-        <v>621.7146221740196</v>
+        <v>621.7146221740197</v>
       </c>
       <c r="Q41" t="n">
-        <v>466.8817893119472</v>
+        <v>466.8817893119473</v>
       </c>
       <c r="R41" t="n">
-        <v>271.5816526986988</v>
+        <v>271.5816526986989</v>
       </c>
       <c r="S41" t="n">
-        <v>98.52015857157343</v>
+        <v>98.52015857157345</v>
       </c>
       <c r="T41" t="n">
-        <v>18.92581433448436</v>
+        <v>18.92581433448437</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3458743910356935</v>
+        <v>0.3458743910356936</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.313238925423275</v>
+        <v>2.313238925423276</v>
       </c>
       <c r="H42" t="n">
-        <v>22.34101804290374</v>
+        <v>22.34101804290375</v>
       </c>
       <c r="I42" t="n">
-        <v>79.64441037093296</v>
+        <v>79.64441037093297</v>
       </c>
       <c r="J42" t="n">
         <v>218.5503495286964</v>
@@ -34214,16 +34214,16 @@
         <v>373.5373575320559</v>
       </c>
       <c r="L42" t="n">
-        <v>502.267074574909</v>
+        <v>502.2670745749091</v>
       </c>
       <c r="M42" t="n">
-        <v>586.1219856215026</v>
+        <v>586.1219856215027</v>
       </c>
       <c r="N42" t="n">
-        <v>601.6348905205035</v>
+        <v>601.6348905205036</v>
       </c>
       <c r="O42" t="n">
-        <v>550.3783859098088</v>
+        <v>550.3783859098089</v>
       </c>
       <c r="P42" t="n">
         <v>441.7271769082394</v>
@@ -34238,7 +34238,7 @@
         <v>42.96739846126125</v>
       </c>
       <c r="T42" t="n">
-        <v>9.323976195017497</v>
+        <v>9.323976195017499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1521867714094261</v>
@@ -34284,40 +34284,40 @@
         <v>17.24251171417747</v>
       </c>
       <c r="I43" t="n">
-        <v>58.32129729089882</v>
+        <v>58.32129729089883</v>
       </c>
       <c r="J43" t="n">
         <v>137.1114658498549</v>
       </c>
       <c r="K43" t="n">
-        <v>225.3162573693127</v>
+        <v>225.3162573693128</v>
       </c>
       <c r="L43" t="n">
-        <v>288.3272357603867</v>
+        <v>288.3272357603868</v>
       </c>
       <c r="M43" t="n">
         <v>304.0006436478138</v>
       </c>
       <c r="N43" t="n">
-        <v>296.7721878167171</v>
+        <v>296.7721878167172</v>
       </c>
       <c r="O43" t="n">
-        <v>274.1171494192548</v>
+        <v>274.1171494192549</v>
       </c>
       <c r="P43" t="n">
-        <v>234.554576529056</v>
+        <v>234.5545765290561</v>
       </c>
       <c r="Q43" t="n">
         <v>162.3934308786182</v>
       </c>
       <c r="R43" t="n">
-        <v>87.19985985513465</v>
+        <v>87.19985985513466</v>
       </c>
       <c r="S43" t="n">
         <v>33.79743860539691</v>
       </c>
       <c r="T43" t="n">
-        <v>8.286278635647651</v>
+        <v>8.286278635647653</v>
       </c>
       <c r="U43" t="n">
         <v>0.1057822804550766</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.323429887946169</v>
+        <v>4.32342988794617</v>
       </c>
       <c r="H44" t="n">
-        <v>44.27732633992872</v>
+        <v>44.27732633992873</v>
       </c>
       <c r="I44" t="n">
         <v>166.6790307550449</v>
       </c>
       <c r="J44" t="n">
-        <v>366.9457074520715</v>
+        <v>366.9457074520716</v>
       </c>
       <c r="K44" t="n">
-        <v>549.9564946088329</v>
+        <v>549.9564946088331</v>
       </c>
       <c r="L44" t="n">
-        <v>682.2696620420656</v>
+        <v>682.2696620420659</v>
       </c>
       <c r="M44" t="n">
-        <v>759.1564583118284</v>
+        <v>759.1564583118285</v>
       </c>
       <c r="N44" t="n">
-        <v>771.4404034809555</v>
+        <v>771.4404034809556</v>
       </c>
       <c r="O44" t="n">
-        <v>728.4492975326907</v>
+        <v>728.4492975326908</v>
       </c>
       <c r="P44" t="n">
-        <v>621.7146221740196</v>
+        <v>621.7146221740197</v>
       </c>
       <c r="Q44" t="n">
-        <v>466.8817893119472</v>
+        <v>466.8817893119473</v>
       </c>
       <c r="R44" t="n">
-        <v>271.5816526986988</v>
+        <v>271.5816526986989</v>
       </c>
       <c r="S44" t="n">
-        <v>98.52015857157343</v>
+        <v>98.52015857157345</v>
       </c>
       <c r="T44" t="n">
-        <v>18.92581433448436</v>
+        <v>18.92581433448437</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3458743910356935</v>
+        <v>0.3458743910356936</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.313238925423275</v>
+        <v>2.313238925423276</v>
       </c>
       <c r="H45" t="n">
-        <v>22.34101804290374</v>
+        <v>22.34101804290375</v>
       </c>
       <c r="I45" t="n">
-        <v>79.64441037093296</v>
+        <v>79.64441037093297</v>
       </c>
       <c r="J45" t="n">
         <v>218.5503495286964</v>
@@ -34451,16 +34451,16 @@
         <v>373.5373575320559</v>
       </c>
       <c r="L45" t="n">
-        <v>502.267074574909</v>
+        <v>502.2670745749091</v>
       </c>
       <c r="M45" t="n">
-        <v>586.1219856215026</v>
+        <v>586.1219856215027</v>
       </c>
       <c r="N45" t="n">
-        <v>601.6348905205035</v>
+        <v>601.6348905205036</v>
       </c>
       <c r="O45" t="n">
-        <v>550.3783859098088</v>
+        <v>550.3783859098089</v>
       </c>
       <c r="P45" t="n">
         <v>441.7271769082394</v>
@@ -34475,7 +34475,7 @@
         <v>42.96739846126125</v>
       </c>
       <c r="T45" t="n">
-        <v>9.323976195017497</v>
+        <v>9.323976195017499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1521867714094261</v>
@@ -34521,40 +34521,40 @@
         <v>17.24251171417747</v>
       </c>
       <c r="I46" t="n">
-        <v>58.32129729089882</v>
+        <v>58.32129729089883</v>
       </c>
       <c r="J46" t="n">
         <v>137.1114658498549</v>
       </c>
       <c r="K46" t="n">
-        <v>225.3162573693127</v>
+        <v>225.3162573693128</v>
       </c>
       <c r="L46" t="n">
-        <v>288.3272357603867</v>
+        <v>288.3272357603868</v>
       </c>
       <c r="M46" t="n">
         <v>304.0006436478138</v>
       </c>
       <c r="N46" t="n">
-        <v>296.7721878167171</v>
+        <v>296.7721878167172</v>
       </c>
       <c r="O46" t="n">
-        <v>274.1171494192548</v>
+        <v>274.1171494192549</v>
       </c>
       <c r="P46" t="n">
-        <v>234.554576529056</v>
+        <v>234.5545765290561</v>
       </c>
       <c r="Q46" t="n">
         <v>162.3934308786182</v>
       </c>
       <c r="R46" t="n">
-        <v>87.19985985513465</v>
+        <v>87.19985985513466</v>
       </c>
       <c r="S46" t="n">
         <v>33.79743860539691</v>
       </c>
       <c r="T46" t="n">
-        <v>8.286278635647651</v>
+        <v>8.286278635647653</v>
       </c>
       <c r="U46" t="n">
         <v>0.1057822804550766</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.4520338474978</v>
+        <v>27.30245672234681</v>
       </c>
       <c r="M2" t="n">
-        <v>28.4520338474978</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="O2" t="n">
-        <v>27.30245672234637</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.4520338474978</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="L3" t="n">
-        <v>27.30245672234637</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>27.30245672234681</v>
       </c>
       <c r="P3" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,10 +34863,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>28.4520338474978</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="N4" t="n">
-        <v>28.4520338474978</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.30245672234637</v>
+        <v>27.30245672234681</v>
       </c>
       <c r="L5" t="n">
-        <v>28.4520338474978</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="O5" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>27.30245672234681</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="M6" t="n">
-        <v>27.30245672234637</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>28.4520338474978</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.4520338474978</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,10 +35100,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>28.4520338474978</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="N7" t="n">
-        <v>28.4520338474978</v>
+        <v>28.45203384749826</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L8" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
         <v>44.13217237922859</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>42.34905430330018</v>
-      </c>
-      <c r="M9" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="N9" t="n">
-        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>183.2202964206722</v>
+        <v>183.2202964206721</v>
       </c>
       <c r="K11" t="n">
-        <v>325.8507579036938</v>
+        <v>325.8507579036936</v>
       </c>
       <c r="L11" t="n">
-        <v>441.5211858017505</v>
+        <v>441.5211858017502</v>
       </c>
       <c r="M11" t="n">
-        <v>523.2667219808789</v>
+        <v>523.2667219808785</v>
       </c>
       <c r="N11" t="n">
-        <v>536.3941371049161</v>
+        <v>536.3941371049159</v>
       </c>
       <c r="O11" t="n">
-        <v>493.0318124651951</v>
+        <v>493.0318124651948</v>
       </c>
       <c r="P11" t="n">
-        <v>385.9417494277974</v>
+        <v>385.9417494277971</v>
       </c>
       <c r="Q11" t="n">
-        <v>241.1668408851087</v>
+        <v>241.1668408851085</v>
       </c>
       <c r="R11" t="n">
-        <v>54.01297462651655</v>
+        <v>54.01297462651644</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>90.11682714427988</v>
+        <v>90.1168271442798</v>
       </c>
       <c r="K12" t="n">
-        <v>232.9682785855323</v>
+        <v>299.3947541015701</v>
       </c>
       <c r="L12" t="n">
-        <v>360.0450462407799</v>
+        <v>360.0450462407797</v>
       </c>
       <c r="M12" t="n">
-        <v>439.7079788284752</v>
+        <v>439.7079788284748</v>
       </c>
       <c r="N12" t="n">
-        <v>465.8999274197223</v>
+        <v>465.899927419722</v>
       </c>
       <c r="O12" t="n">
-        <v>403.7631750756528</v>
+        <v>403.7631750756526</v>
       </c>
       <c r="P12" t="n">
-        <v>304.5271946478299</v>
+        <v>304.5271946478297</v>
       </c>
       <c r="Q12" t="n">
-        <v>219.5714097403896</v>
+        <v>153.1449342243534</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.75107204637692</v>
+        <v>42.75107204637686</v>
       </c>
       <c r="K13" t="n">
-        <v>201.4014638953175</v>
+        <v>201.4014638953174</v>
       </c>
       <c r="L13" t="n">
-        <v>313.8118413686503</v>
+        <v>313.8118413686502</v>
       </c>
       <c r="M13" t="n">
-        <v>341.3646507881831</v>
+        <v>341.364650788183</v>
       </c>
       <c r="N13" t="n">
-        <v>338.737273917176</v>
+        <v>338.7372739171759</v>
       </c>
       <c r="O13" t="n">
-        <v>296.7006224017724</v>
+        <v>296.7006224017723</v>
       </c>
       <c r="P13" t="n">
-        <v>230.1203742034575</v>
+        <v>230.1203742034574</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.04556028101116</v>
+        <v>75.04556028101108</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>185.8998029253852</v>
+        <v>354.996418097459</v>
       </c>
       <c r="K14" t="n">
-        <v>329.8666435638524</v>
+        <v>654.0120561350171</v>
       </c>
       <c r="L14" t="n">
         <v>446.5032470720784</v>
       </c>
       <c r="M14" t="n">
-        <v>545.4589870831162</v>
+        <v>528.8102250845557</v>
       </c>
       <c r="N14" t="n">
-        <v>979.3742642963488</v>
+        <v>542.0273398843647</v>
       </c>
       <c r="O14" t="n">
-        <v>498.351086111004</v>
+        <v>524.8211646512935</v>
       </c>
       <c r="P14" t="n">
         <v>712.2803345902328</v>
@@ -35668,7 +35668,7 @@
         <v>244.5760994374977</v>
       </c>
       <c r="R14" t="n">
-        <v>121.7125347575491</v>
+        <v>55.99611488456668</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.71272286202972</v>
+        <v>130.9062372118051</v>
       </c>
       <c r="K15" t="n">
         <v>235.6959185576969</v>
@@ -35744,7 +35744,7 @@
         <v>307.7527694939091</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.4946599370829</v>
+        <v>155.3011455873075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>185.8998029253852</v>
       </c>
       <c r="K17" t="n">
-        <v>329.8666435638524</v>
+        <v>468.7785685846362</v>
       </c>
       <c r="L17" t="n">
         <v>446.5032470720784</v>
       </c>
       <c r="M17" t="n">
-        <v>932.9741151275814</v>
+        <v>528.8102250845557</v>
       </c>
       <c r="N17" t="n">
-        <v>979.3742642963488</v>
+        <v>542.0273398843647</v>
       </c>
       <c r="O17" t="n">
-        <v>498.351086111004</v>
+        <v>879.1512673737493</v>
       </c>
       <c r="P17" t="n">
-        <v>390.4816264187501</v>
+        <v>712.2803345902328</v>
       </c>
       <c r="Q17" t="n">
         <v>244.5760994374977</v>
@@ -35975,13 +35975,13 @@
         <v>470.2931784371702</v>
       </c>
       <c r="O18" t="n">
-        <v>446.9756558151398</v>
+        <v>407.7821414653644</v>
       </c>
       <c r="P18" t="n">
         <v>307.7527694939091</v>
       </c>
       <c r="Q18" t="n">
-        <v>155.3011455873075</v>
+        <v>194.4946599370829</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.54914454854314</v>
+        <v>87.54914454854317</v>
       </c>
       <c r="K19" t="n">
         <v>246.8436243587909</v>
@@ -36054,13 +36054,13 @@
         <v>384.7012190113068</v>
       </c>
       <c r="O19" t="n">
-        <v>342.4991361486555</v>
+        <v>342.4991361486556</v>
       </c>
       <c r="P19" t="n">
-        <v>275.6299946093105</v>
+        <v>275.6299946093106</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.0282464422848</v>
+        <v>120.0282464422849</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>185.8998029253852</v>
       </c>
       <c r="K20" t="n">
-        <v>571.5473393144924</v>
+        <v>468.7785685846353</v>
       </c>
       <c r="L20" t="n">
         <v>446.5032470720784</v>
@@ -36133,16 +36133,16 @@
         <v>542.0273398843647</v>
       </c>
       <c r="O20" t="n">
-        <v>498.351086111004</v>
+        <v>879.1512673737493</v>
       </c>
       <c r="P20" t="n">
         <v>712.2803345902328</v>
       </c>
       <c r="Q20" t="n">
-        <v>456.8910900974024</v>
+        <v>244.5760994374977</v>
       </c>
       <c r="R20" t="n">
-        <v>121.7125347575491</v>
+        <v>55.99611488456668</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>407.7821414653644</v>
       </c>
       <c r="P21" t="n">
-        <v>346.9462838436849</v>
+        <v>307.7527694939091</v>
       </c>
       <c r="Q21" t="n">
-        <v>155.3011455873075</v>
+        <v>194.4946599370829</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>185.8998029253852</v>
       </c>
       <c r="K23" t="n">
-        <v>654.0120561350171</v>
+        <v>329.8666435638524</v>
       </c>
       <c r="L23" t="n">
         <v>446.5032470720784</v>
       </c>
       <c r="M23" t="n">
-        <v>528.8102250845557</v>
+        <v>978.3237585773882</v>
       </c>
       <c r="N23" t="n">
-        <v>542.0273398843647</v>
+        <v>934.0246208465433</v>
       </c>
       <c r="O23" t="n">
-        <v>879.1512673737493</v>
+        <v>498.351086111004</v>
       </c>
       <c r="P23" t="n">
-        <v>527.04684703985</v>
+        <v>390.4816264187501</v>
       </c>
       <c r="Q23" t="n">
         <v>244.5760994374977</v>
@@ -36443,7 +36443,7 @@
         <v>363.7126947950348</v>
       </c>
       <c r="M24" t="n">
-        <v>483.1814660492598</v>
+        <v>443.9879516994843</v>
       </c>
       <c r="N24" t="n">
         <v>470.2931784371702</v>
@@ -36452,7 +36452,7 @@
         <v>407.7821414653644</v>
       </c>
       <c r="P24" t="n">
-        <v>307.7527694939091</v>
+        <v>346.9462838436849</v>
       </c>
       <c r="Q24" t="n">
         <v>155.3011455873075</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.54914454854315</v>
+        <v>87.54914454854317</v>
       </c>
       <c r="K25" t="n">
         <v>246.8436243587909</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>354.996418097459</v>
+        <v>185.8998029253852</v>
       </c>
       <c r="K26" t="n">
-        <v>654.0120561350171</v>
+        <v>637.2637591874749</v>
       </c>
       <c r="L26" t="n">
         <v>446.5032470720784</v>
@@ -36610,13 +36610,13 @@
         <v>498.351086111004</v>
       </c>
       <c r="P26" t="n">
-        <v>460.7190025976353</v>
+        <v>712.2803345902328</v>
       </c>
       <c r="Q26" t="n">
         <v>456.8910900974024</v>
       </c>
       <c r="R26" t="n">
-        <v>121.7125347575491</v>
+        <v>55.99611488456668</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>130.9062372118051</v>
+        <v>91.71272286202972</v>
       </c>
       <c r="K27" t="n">
         <v>235.6959185576969</v>
@@ -36692,7 +36692,7 @@
         <v>307.7527694939091</v>
       </c>
       <c r="Q27" t="n">
-        <v>155.3011455873075</v>
+        <v>194.4946599370829</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.54914454854315</v>
+        <v>87.54914454854317</v>
       </c>
       <c r="K28" t="n">
         <v>246.8436243587909</v>
       </c>
       <c r="L28" t="n">
-        <v>359.7141198360639</v>
+        <v>359.714119836064</v>
       </c>
       <c r="M28" t="n">
         <v>387.3813794250154</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>354.996418097459</v>
+        <v>185.8998029253852</v>
       </c>
       <c r="K29" t="n">
         <v>329.8666435638524</v>
@@ -36838,19 +36838,19 @@
         <v>446.5032470720784</v>
       </c>
       <c r="M29" t="n">
-        <v>528.8102250845557</v>
+        <v>978.3237585773882</v>
       </c>
       <c r="N29" t="n">
-        <v>542.0273398843647</v>
+        <v>934.0246208465423</v>
       </c>
       <c r="O29" t="n">
-        <v>879.1512673737493</v>
+        <v>498.351086111004</v>
       </c>
       <c r="P29" t="n">
-        <v>469.7806537790372</v>
+        <v>390.4816264187501</v>
       </c>
       <c r="Q29" t="n">
-        <v>456.8910900974024</v>
+        <v>244.5760994374977</v>
       </c>
       <c r="R29" t="n">
         <v>55.99611488456668</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>91.71272286202972</v>
+        <v>130.9062372118051</v>
       </c>
       <c r="K30" t="n">
         <v>235.6959185576969</v>
@@ -36929,7 +36929,7 @@
         <v>307.7527694939091</v>
       </c>
       <c r="Q30" t="n">
-        <v>194.4946599370829</v>
+        <v>155.3011455873075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.54914454854315</v>
+        <v>87.54914454854317</v>
       </c>
       <c r="K31" t="n">
         <v>246.8436243587909</v>
@@ -37069,10 +37069,10 @@
         <v>354.996418097459</v>
       </c>
       <c r="K32" t="n">
-        <v>329.8666435638524</v>
+        <v>654.0120561350171</v>
       </c>
       <c r="L32" t="n">
-        <v>457.0003144744994</v>
+        <v>446.5032470720784</v>
       </c>
       <c r="M32" t="n">
         <v>528.8102250845557</v>
@@ -37084,7 +37084,7 @@
         <v>498.351086111004</v>
       </c>
       <c r="P32" t="n">
-        <v>712.2803345902328</v>
+        <v>398.6319894214899</v>
       </c>
       <c r="Q32" t="n">
         <v>456.8910900974024</v>
@@ -37148,7 +37148,7 @@
         <v>91.71272286202972</v>
       </c>
       <c r="K33" t="n">
-        <v>274.8894329074724</v>
+        <v>235.6959185576969</v>
       </c>
       <c r="L33" t="n">
         <v>363.7126947950348</v>
@@ -37166,7 +37166,7 @@
         <v>307.7527694939091</v>
       </c>
       <c r="Q33" t="n">
-        <v>155.3011455873075</v>
+        <v>194.4946599370829</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>185.8998029253852</v>
+        <v>354.996418097459</v>
       </c>
       <c r="K35" t="n">
-        <v>329.8666435638524</v>
+        <v>340.3637109662743</v>
       </c>
       <c r="L35" t="n">
-        <v>864.1644616225288</v>
+        <v>446.5032470720784</v>
       </c>
       <c r="M35" t="n">
         <v>528.8102250845557</v>
@@ -37318,16 +37318,16 @@
         <v>542.0273398843647</v>
       </c>
       <c r="O35" t="n">
-        <v>860.1136728394182</v>
+        <v>498.351086111004</v>
       </c>
       <c r="P35" t="n">
-        <v>390.4816264187501</v>
+        <v>712.2803345902328</v>
       </c>
       <c r="Q35" t="n">
-        <v>244.5760994374977</v>
+        <v>456.8910900974024</v>
       </c>
       <c r="R35" t="n">
-        <v>55.99611488456668</v>
+        <v>121.7125347575491</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>91.71272286202972</v>
       </c>
       <c r="K36" t="n">
-        <v>235.6959185576969</v>
+        <v>274.8894329074724</v>
       </c>
       <c r="L36" t="n">
         <v>363.7126947950348</v>
@@ -37394,7 +37394,7 @@
         <v>443.9879516994843</v>
       </c>
       <c r="N36" t="n">
-        <v>509.4866927869458</v>
+        <v>470.2931784371702</v>
       </c>
       <c r="O36" t="n">
         <v>407.7821414653644</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>91.8956789495389</v>
+        <v>91.89567894953893</v>
       </c>
       <c r="K37" t="n">
         <v>251.1901587597867</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>354.9964180974591</v>
+        <v>354.996418097459</v>
       </c>
       <c r="K38" t="n">
-        <v>329.8666435638525</v>
+        <v>329.8666435638524</v>
       </c>
       <c r="L38" t="n">
-        <v>446.5032470720786</v>
+        <v>446.5032470720784</v>
       </c>
       <c r="M38" t="n">
-        <v>539.3072924869757</v>
+        <v>528.8102250845557</v>
       </c>
       <c r="N38" t="n">
         <v>542.0273398843647</v>
       </c>
       <c r="O38" t="n">
-        <v>498.3510861110041</v>
+        <v>508.8481535134256</v>
       </c>
       <c r="P38" t="n">
         <v>712.2803345902328</v>
       </c>
       <c r="Q38" t="n">
-        <v>456.8910900974025</v>
+        <v>456.8910900974024</v>
       </c>
       <c r="R38" t="n">
-        <v>121.7125347575492</v>
+        <v>121.7125347575491</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>91.71272286202975</v>
+        <v>130.9062372118052</v>
       </c>
       <c r="K39" t="n">
         <v>235.6959185576969</v>
       </c>
       <c r="L39" t="n">
-        <v>363.712694795035</v>
+        <v>363.7126947950348</v>
       </c>
       <c r="M39" t="n">
-        <v>443.9879516994844</v>
+        <v>443.9879516994843</v>
       </c>
       <c r="N39" t="n">
-        <v>470.2931784371704</v>
+        <v>470.2931784371702</v>
       </c>
       <c r="O39" t="n">
-        <v>407.7821414653645</v>
+        <v>407.7821414653644</v>
       </c>
       <c r="P39" t="n">
-        <v>346.9462838436834</v>
+        <v>307.7527694939091</v>
       </c>
       <c r="Q39" t="n">
         <v>155.3011455873075</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>91.89567894953893</v>
+        <v>91.8956789495389</v>
       </c>
       <c r="K40" t="n">
         <v>251.1901587597867</v>
@@ -37716,7 +37716,7 @@
         <v>346.8456705496513</v>
       </c>
       <c r="P40" t="n">
-        <v>279.9765290103064</v>
+        <v>279.9765290103063</v>
       </c>
       <c r="Q40" t="n">
         <v>124.3747808432806</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>185.8998029253852</v>
+        <v>185.8998029253853</v>
       </c>
       <c r="K41" t="n">
-        <v>329.8666435638524</v>
+        <v>575.1767460113288</v>
       </c>
       <c r="L41" t="n">
-        <v>446.5032470720784</v>
+        <v>446.5032470720786</v>
       </c>
       <c r="M41" t="n">
-        <v>978.3237585773882</v>
+        <v>528.8102250845558</v>
       </c>
       <c r="N41" t="n">
-        <v>871.9376076703974</v>
+        <v>542.0273398843647</v>
       </c>
       <c r="O41" t="n">
-        <v>498.351086111004</v>
+        <v>498.3510861110041</v>
       </c>
       <c r="P41" t="n">
-        <v>390.4816264187501</v>
+        <v>712.2803345902328</v>
       </c>
       <c r="Q41" t="n">
-        <v>244.5760994374977</v>
+        <v>456.8910900974025</v>
       </c>
       <c r="R41" t="n">
-        <v>55.99611488456668</v>
+        <v>55.99611488456674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>130.9062372118052</v>
+        <v>91.71272286202975</v>
       </c>
       <c r="K42" t="n">
-        <v>235.6959185576969</v>
+        <v>274.8894329074715</v>
       </c>
       <c r="L42" t="n">
-        <v>363.7126947950348</v>
+        <v>363.712694795035</v>
       </c>
       <c r="M42" t="n">
-        <v>443.9879516994843</v>
+        <v>443.9879516994844</v>
       </c>
       <c r="N42" t="n">
-        <v>470.2931784371702</v>
+        <v>470.2931784371704</v>
       </c>
       <c r="O42" t="n">
-        <v>407.7821414653644</v>
+        <v>407.7821414653645</v>
       </c>
       <c r="P42" t="n">
-        <v>307.7527694939091</v>
+        <v>307.7527694939092</v>
       </c>
       <c r="Q42" t="n">
         <v>155.3011455873075</v>
@@ -37953,7 +37953,7 @@
         <v>346.8456705496513</v>
       </c>
       <c r="P43" t="n">
-        <v>279.9765290103061</v>
+        <v>279.9765290103063</v>
       </c>
       <c r="Q43" t="n">
         <v>124.3747808432806</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>354.996418097459</v>
+        <v>185.8998029253853</v>
       </c>
       <c r="K44" t="n">
-        <v>329.8666435638524</v>
+        <v>516.175272920067</v>
       </c>
       <c r="L44" t="n">
-        <v>446.5032470720784</v>
+        <v>446.5032470720786</v>
       </c>
       <c r="M44" t="n">
-        <v>528.8102250845557</v>
+        <v>528.8102250845558</v>
       </c>
       <c r="N44" t="n">
         <v>542.0273398843647</v>
       </c>
       <c r="O44" t="n">
-        <v>879.1512673737493</v>
+        <v>879.1512673737494</v>
       </c>
       <c r="P44" t="n">
-        <v>390.4816264187501</v>
+        <v>390.4816264187502</v>
       </c>
       <c r="Q44" t="n">
-        <v>456.8910900974024</v>
+        <v>456.8910900974025</v>
       </c>
       <c r="R44" t="n">
-        <v>73.20812906870715</v>
+        <v>55.99611488456674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>91.71272286202972</v>
+        <v>91.71272286202975</v>
       </c>
       <c r="K45" t="n">
         <v>235.6959185576969</v>
       </c>
       <c r="L45" t="n">
-        <v>363.7126947950348</v>
+        <v>363.712694795035</v>
       </c>
       <c r="M45" t="n">
-        <v>443.9879516994843</v>
+        <v>443.9879516994844</v>
       </c>
       <c r="N45" t="n">
-        <v>470.2931784371702</v>
+        <v>470.2931784371704</v>
       </c>
       <c r="O45" t="n">
-        <v>407.7821414653644</v>
+        <v>407.7821414653645</v>
       </c>
       <c r="P45" t="n">
-        <v>346.9462838436849</v>
+        <v>307.7527694939092</v>
       </c>
       <c r="Q45" t="n">
-        <v>155.3011455873075</v>
+        <v>194.494659937082</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>391.7279138260112</v>
       </c>
       <c r="N46" t="n">
-        <v>389.0477534123025</v>
+        <v>389.0477534123027</v>
       </c>
       <c r="O46" t="n">
         <v>346.8456705496513</v>
